--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Nr.</t>
   </si>
@@ -263,15 +263,6 @@
     <t>&lt;Teammitglied 3&gt;</t>
   </si>
   <si>
-    <t>Anforderung #04</t>
-  </si>
-  <si>
-    <t>Anforderung #05</t>
-  </si>
-  <si>
-    <t>Anforderung #06</t>
-  </si>
-  <si>
     <t>Administration, Planung, Dokumentation</t>
   </si>
   <si>
@@ -294,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -412,8 +403,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,8 +464,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="85">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -810,7 +814,468 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -821,51 +1286,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -875,512 +1314,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1533,19 +1470,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1600,42 +1537,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1696,151 +1615,139 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1858,91 +1765,85 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1954,11 +1855,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1969,7 +1879,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1978,32 +1888,32 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2096,52 +2006,52 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>42370</c:v>
+                  <c:v>42705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42371</c:v>
+                  <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42372</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42373</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42374</c:v>
+                  <c:v>42709</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42377</c:v>
+                  <c:v>42710</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42378</c:v>
+                  <c:v>42711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42379</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42380</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42381</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42384</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42385</c:v>
+                  <c:v>42716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42386</c:v>
+                  <c:v>42717</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42387</c:v>
+                  <c:v>42718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42388</c:v>
+                  <c:v>42719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42391</c:v>
+                  <c:v>42720</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,7 +2250,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2352,7 +2262,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.8</c:v>
+                  <c:v>22.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2</c:v>
@@ -2939,7 +2849,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2959,38 +2869,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="150"/>
+      <c r="A1" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="141"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="141"/>
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="141"/>
+      <c r="AD1" s="141"/>
     </row>
     <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
@@ -3005,56 +2915,56 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="152" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="152"/>
+      <c r="D3" s="143"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="26"/>
       <c r="H3" s="25"/>
       <c r="I3" s="26"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="151" t="s">
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="151" t="s">
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="151" t="s">
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="153"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="144"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
     </row>
     <row r="4" spans="1:34" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92"/>
+      <c r="A4" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83"/>
       <c r="C4" s="28" t="s">
         <v>2</v>
       </c>
@@ -3067,1334 +2977,1284 @@
       <c r="F4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="145" t="s">
+      <c r="H4" s="133" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="132">
-        <v>42370</v>
-      </c>
-      <c r="L4" s="32">
-        <v>42371</v>
-      </c>
-      <c r="M4" s="32">
-        <f>L4+1</f>
-        <v>42372</v>
-      </c>
-      <c r="N4" s="33">
-        <f>M4+1</f>
-        <v>42373</v>
-      </c>
-      <c r="O4" s="34">
-        <f>N4+1</f>
-        <v>42374</v>
-      </c>
-      <c r="P4" s="35">
-        <f>O4+3</f>
-        <v>42377</v>
-      </c>
-      <c r="Q4" s="32">
-        <f>P4+1</f>
-        <v>42378</v>
-      </c>
-      <c r="R4" s="32">
-        <f>Q4+1</f>
-        <v>42379</v>
-      </c>
-      <c r="S4" s="32">
-        <f>R4+1</f>
-        <v>42380</v>
-      </c>
-      <c r="T4" s="36">
-        <f>S4+1</f>
-        <v>42381</v>
-      </c>
-      <c r="U4" s="35">
-        <f>T4+3</f>
-        <v>42384</v>
-      </c>
-      <c r="V4" s="37">
-        <f>U4+1</f>
-        <v>42385</v>
-      </c>
-      <c r="W4" s="37">
-        <f>V4+1</f>
-        <v>42386</v>
-      </c>
-      <c r="X4" s="32">
-        <f>W4+1</f>
-        <v>42387</v>
-      </c>
-      <c r="Y4" s="34">
-        <f>X4+1</f>
-        <v>42388</v>
-      </c>
-      <c r="Z4" s="35">
-        <f>Y4+3</f>
-        <v>42391</v>
-      </c>
-      <c r="AA4" s="37">
-        <f>Z4+1</f>
-        <v>42392</v>
-      </c>
-      <c r="AB4" s="37">
-        <f>AA4+1</f>
-        <v>42393</v>
-      </c>
-      <c r="AC4" s="37">
-        <f>AB4+1</f>
-        <v>42394</v>
-      </c>
-      <c r="AD4" s="93">
-        <f>AC4+1</f>
-        <v>42395</v>
-      </c>
+      <c r="K4" s="121">
+        <v>42705</v>
+      </c>
+      <c r="L4" s="121">
+        <v>42706</v>
+      </c>
+      <c r="M4" s="121">
+        <v>42709</v>
+      </c>
+      <c r="N4" s="121">
+        <v>42710</v>
+      </c>
+      <c r="O4" s="121">
+        <v>42711</v>
+      </c>
+      <c r="P4" s="121">
+        <v>42716</v>
+      </c>
+      <c r="Q4" s="121">
+        <v>42717</v>
+      </c>
+      <c r="R4" s="121">
+        <v>42718</v>
+      </c>
+      <c r="S4" s="121">
+        <v>42719</v>
+      </c>
+      <c r="T4" s="121">
+        <v>42720</v>
+      </c>
+      <c r="U4" s="121">
+        <v>42723</v>
+      </c>
+      <c r="V4" s="121">
+        <v>42724</v>
+      </c>
+      <c r="W4" s="121">
+        <v>42725</v>
+      </c>
+      <c r="X4" s="121">
+        <v>42726</v>
+      </c>
+      <c r="Y4" s="121">
+        <v>42727</v>
+      </c>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
     </row>
     <row r="5" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="116">
+      <c r="A5" s="105">
         <v>10</v>
       </c>
-      <c r="B5" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="119">
+      <c r="B5" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="108">
         <f>SUM(C6:C10)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D5" s="109">
+        <f>SUM(D6:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="118"/>
+    </row>
+    <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="79">
         <v>11</v>
       </c>
-      <c r="D5" s="120">
-        <f>SUM(D6:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="129"/>
-    </row>
-    <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88">
-        <v>11</v>
-      </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40" t="str">
+      <c r="C6" s="33"/>
+      <c r="D6" s="34" t="str">
         <f>IF(SUM(K6:AD6)=0," ",SUM(K6:AD6))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="32">
         <v>1</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="95"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="85"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88">
+      <c r="A7" s="79">
         <v>12</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="44">
         <v>3</v>
       </c>
-      <c r="D7" s="40" t="str">
+      <c r="D7" s="34" t="str">
         <f t="shared" ref="D7:D10" si="0">IF(SUM(K7:AD7)=0," ",SUM(K7:AD7))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="97"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="87"/>
     </row>
     <row r="8" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88">
+      <c r="A8" s="79">
         <v>13</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="50">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="str">
+      <c r="C8" s="44">
+        <v>2</v>
+      </c>
+      <c r="D8" s="34" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="43">
         <v>1</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="98"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="88"/>
       <c r="AF8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88">
+      <c r="A9" s="79">
         <v>14</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="50">
-        <v>2</v>
-      </c>
-      <c r="D9" s="40" t="str">
+      <c r="C9" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="34" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="43">
         <v>1</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="98"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="88"/>
     </row>
     <row r="10" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88">
+      <c r="A10" s="79">
         <v>15</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="55">
         <v>3</v>
       </c>
-      <c r="D10" s="40" t="str">
+      <c r="D10" s="34" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="54">
         <v>1</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="98"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="88"/>
     </row>
     <row r="11" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="116">
+      <c r="A11" s="105">
         <v>20</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="130">
+      <c r="C11" s="119">
         <f>SUM(C12:C14)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="119">
+      <c r="D11" s="108">
         <f>SUM(D12:D14)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="129"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="118"/>
     </row>
     <row r="12" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89">
+      <c r="A12" s="80">
         <v>21</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="75" t="str">
+      <c r="C12" s="33"/>
+      <c r="D12" s="67" t="str">
         <f>IF(SUM(K12:AD12)=0," ",SUM(K12:AD12))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="100"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="90"/>
     </row>
     <row r="13" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89">
+      <c r="A13" s="80">
         <v>22</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="75" t="str">
+      <c r="B13" s="84"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="67" t="str">
         <f t="shared" ref="D13:D14" si="1">IF(SUM(K13:AD13)=0," ",SUM(K13:AD13))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="100"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="90"/>
     </row>
     <row r="14" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89">
+      <c r="A14" s="80">
         <v>23</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="75" t="str">
+      <c r="B14" s="84"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="67" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="32">
         <v>1</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="100"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="90"/>
     </row>
     <row r="15" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="116">
+      <c r="A15" s="105">
         <v>30</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="108">
         <f>SUM(C16:C21)</f>
         <v>74</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="109">
         <f>SUM(D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="123"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="129"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="112"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="116"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="118"/>
     </row>
     <row r="16" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="89">
+      <c r="A16" s="80">
         <v>31</v>
       </c>
-      <c r="B16" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="39">
+      <c r="B16" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="33">
         <v>10</v>
       </c>
-      <c r="D16" s="75" t="str">
+      <c r="D16" s="67" t="str">
         <f>IF(SUM(K16:AD16)=0," ",SUM(K16:AD16))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="32">
         <v>1</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="100"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="136"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="90"/>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="89">
+      <c r="A17" s="80">
         <v>32</v>
       </c>
-      <c r="B17" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="39">
+      <c r="B17" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="33">
         <v>56</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="38">
+      <c r="D17" s="67"/>
+      <c r="E17" s="32">
         <v>1</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42">
+      <c r="F17" s="33"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36">
         <v>42727</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="100"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="136"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="90"/>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89">
+      <c r="A18" s="80">
         <v>33</v>
       </c>
-      <c r="B18" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="39">
+      <c r="B18" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="33">
         <v>8</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="38">
+      <c r="D18" s="67"/>
+      <c r="E18" s="32">
         <v>2</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="100"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="136"/>
+      <c r="Y18" s="136"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="90"/>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="89">
-        <v>34</v>
-      </c>
-      <c r="B19" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="100"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="90"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89">
-        <v>35</v>
-      </c>
-      <c r="B20" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="38">
-        <v>1</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="100"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="90"/>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89">
-        <v>36</v>
-      </c>
-      <c r="B21" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="40" t="str">
-        <f>IF(SUM(K21:AD21)=0," ",SUM(K21:AD21))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E21" s="49">
-        <v>1</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="98"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="88"/>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="116">
+      <c r="A22" s="105">
         <v>40</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="119">
+      <c r="C22" s="108">
         <f>SUM(C23:C26)</f>
         <v>29</v>
       </c>
-      <c r="D22" s="120">
+      <c r="D22" s="109">
         <f>SUM(D23:D26)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="126"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="123"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="129"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="115"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="112"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="116"/>
+      <c r="AB22" s="116"/>
+      <c r="AC22" s="117"/>
+      <c r="AD22" s="118"/>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89">
+      <c r="A23" s="80">
         <v>30</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="33">
         <v>8</v>
       </c>
-      <c r="D23" s="75" t="str">
+      <c r="D23" s="67" t="str">
         <f>IF(SUM(K23:AD23)=0," ",SUM(K23:AD23))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="32">
         <v>1</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="103"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="130"/>
+      <c r="W23" s="130"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="93"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89">
+      <c r="A24" s="80">
         <v>31</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="33">
         <v>8</v>
       </c>
-      <c r="D24" s="75" t="str">
+      <c r="D24" s="67" t="str">
         <f>IF(SUM(K24:AD24)=0," ",SUM(K24:AD24))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="32">
         <v>1</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="104"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="94"/>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89">
+      <c r="A25" s="80">
         <v>32</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="65">
         <v>5</v>
       </c>
-      <c r="D25" s="75" t="str">
+      <c r="D25" s="67" t="str">
         <f>IF(SUM(K25:AD25)=0," ",SUM(K25:AD25))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="79">
+      <c r="E25" s="70">
         <v>1</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="97"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="87"/>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88">
+      <c r="A26" s="79">
         <v>33</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="55">
         <v>8</v>
       </c>
-      <c r="D26" s="70" t="str">
+      <c r="D26" s="64" t="str">
         <f>IF(SUM(K26:AD26)=0," ",SUM(K26:AD26))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="54">
         <v>2</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="106"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="130"/>
+      <c r="W26" s="130"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="96"/>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="116">
+      <c r="A27" s="105">
         <v>50</v>
       </c>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="119">
+      <c r="C27" s="108">
         <f>SUM(C28)</f>
-        <v>22.8</v>
-      </c>
-      <c r="D27" s="120">
+        <v>22.3</v>
+      </c>
+      <c r="D27" s="109">
         <f>SUM(D28)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="123"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="129"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="116"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="118"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90">
+      <c r="A28" s="81">
         <v>51</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="71">
+      <c r="C28" s="65">
         <f>(C5+C11+C15+C22)*0.2</f>
-        <v>22.8</v>
-      </c>
-      <c r="D28" s="82" t="str">
+        <v>22.3</v>
+      </c>
+      <c r="D28" s="73" t="str">
         <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="79">
+      <c r="E28" s="70">
         <v>3</v>
       </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="97"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="130"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="87"/>
     </row>
     <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="116">
+      <c r="A29" s="105">
         <v>60</v>
       </c>
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="119">
+      <c r="C29" s="108">
         <f>SUM(C30:C31)</f>
         <v>0.2</v>
       </c>
-      <c r="D29" s="120">
+      <c r="D29" s="109">
         <f>SUM(D30:D31)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="123"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="129"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="117"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="115"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="112"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="116"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="118"/>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="89">
+      <c r="A30" s="80">
         <v>61</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="75" t="str">
+      <c r="C30" s="33"/>
+      <c r="D30" s="67" t="str">
         <f>IF(SUM(K30:AD30)=0," ",SUM(K30:AD30))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="32">
         <v>2</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="104"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="94"/>
     </row>
     <row r="31" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="88">
+      <c r="A31" s="79">
         <v>62</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="44">
         <v>0.2</v>
       </c>
-      <c r="D31" s="40" t="str">
+      <c r="D31" s="34" t="str">
         <f>IF(SUM(K31:AD31)=0," ",SUM(K31:AD31))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="43">
         <v>1</v>
       </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="104"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="94"/>
     </row>
     <row r="32" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="115"/>
-      <c r="B32" s="134" t="s">
+      <c r="A32" s="104"/>
+      <c r="B32" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="135">
+      <c r="C32" s="123">
         <f>SUM(C5+C11+C15+C22+C29)</f>
-        <v>114.2</v>
-      </c>
-      <c r="D32" s="135" t="str">
+        <v>111.7</v>
+      </c>
+      <c r="D32" s="123" t="str">
         <f>IF(SUM(K32:AD32)=0," ",SUM(K32:AD32))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="138">
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="126">
         <f t="shared" ref="K32:AD32" si="2">SUM(K5:K31)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="135">
+      <c r="L32" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="139">
+      <c r="M32" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="139">
+      <c r="N32" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O32" s="139">
+      <c r="O32" s="127">
+        <f>SUM(O5:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P32" s="139">
+      <c r="Q32" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="135">
+      <c r="R32" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R32" s="139">
+      <c r="S32" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S32" s="135">
+      <c r="T32" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T32" s="139">
+      <c r="U32" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U32" s="139">
+      <c r="V32" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V32" s="135">
+      <c r="W32" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W32" s="139">
+      <c r="X32" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X32" s="135">
+      <c r="Y32" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="139">
+      <c r="Z32" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="139">
+      <c r="AA32" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="135">
+      <c r="AB32" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="139">
+      <c r="AC32" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="135">
+      <c r="AD32" s="128">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="141"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
+      <c r="A33" s="129"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="142"/>
+      <c r="A34" s="130"/>
       <c r="B34" s="15" t="s">
         <v>24</v>
       </c>
@@ -4406,26 +4266,26 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="148"/>
-      <c r="Q34" s="148"/>
-      <c r="R34" s="148"/>
-      <c r="S34" s="148"/>
-      <c r="T34" s="148"/>
-      <c r="U34" s="148"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="148"/>
-      <c r="Y34" s="148"/>
-      <c r="Z34" s="148"/>
-      <c r="AA34" s="148"/>
-      <c r="AB34" s="148"/>
-      <c r="AC34" s="148"/>
-      <c r="AD34" s="148"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="139"/>
+      <c r="Q34" s="139"/>
+      <c r="R34" s="139"/>
+      <c r="S34" s="139"/>
+      <c r="T34" s="139"/>
+      <c r="U34" s="139"/>
+      <c r="V34" s="139"/>
+      <c r="W34" s="139"/>
+      <c r="X34" s="139"/>
+      <c r="Y34" s="139"/>
+      <c r="Z34" s="139"/>
+      <c r="AA34" s="139"/>
+      <c r="AB34" s="139"/>
+      <c r="AC34" s="139"/>
+      <c r="AD34" s="139"/>
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
@@ -4438,26 +4298,26 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
-      <c r="M35" s="146"/>
-      <c r="N35" s="146"/>
-      <c r="O35" s="146"/>
-      <c r="P35" s="146"/>
-      <c r="Q35" s="146"/>
-      <c r="R35" s="146"/>
-      <c r="S35" s="146"/>
-      <c r="T35" s="146"/>
-      <c r="U35" s="146"/>
-      <c r="V35" s="146"/>
-      <c r="W35" s="146"/>
-      <c r="X35" s="146"/>
-      <c r="Y35" s="146"/>
-      <c r="Z35" s="146"/>
-      <c r="AA35" s="146"/>
-      <c r="AB35" s="146"/>
-      <c r="AC35" s="146"/>
-      <c r="AD35" s="146"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="137"/>
+      <c r="M35" s="137"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="137"/>
+      <c r="P35" s="137"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="137"/>
+      <c r="S35" s="137"/>
+      <c r="T35" s="137"/>
+      <c r="U35" s="137"/>
+      <c r="V35" s="137"/>
+      <c r="W35" s="137"/>
+      <c r="X35" s="137"/>
+      <c r="Y35" s="137"/>
+      <c r="Z35" s="137"/>
+      <c r="AA35" s="137"/>
+      <c r="AB35" s="137"/>
+      <c r="AC35" s="137"/>
+      <c r="AD35" s="137"/>
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
@@ -4470,26 +4330,26 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="146"/>
-      <c r="N36" s="146"/>
-      <c r="O36" s="146"/>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="146"/>
-      <c r="R36" s="146"/>
-      <c r="S36" s="146"/>
-      <c r="T36" s="146"/>
-      <c r="U36" s="146"/>
-      <c r="V36" s="146"/>
-      <c r="W36" s="146"/>
-      <c r="X36" s="146"/>
-      <c r="Y36" s="146"/>
-      <c r="Z36" s="146"/>
-      <c r="AA36" s="146"/>
-      <c r="AB36" s="146"/>
-      <c r="AC36" s="146"/>
-      <c r="AD36" s="146"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="137"/>
+      <c r="P36" s="137"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="137"/>
+      <c r="S36" s="137"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="137"/>
+      <c r="V36" s="137"/>
+      <c r="W36" s="137"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
+      <c r="Z36" s="137"/>
+      <c r="AA36" s="137"/>
+      <c r="AB36" s="137"/>
+      <c r="AC36" s="137"/>
+      <c r="AD36" s="137"/>
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
@@ -4559,21 +4419,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
+      <c r="A1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -4609,7 +4469,7 @@
       </c>
       <c r="B4" s="7">
         <f>'IPA Zeitplanung'!K$4</f>
-        <v>42370</v>
+        <v>42705</v>
       </c>
       <c r="C4" s="5">
         <f>'IPA Zeitplanung'!K32</f>
@@ -4622,7 +4482,7 @@
       </c>
       <c r="B5" s="7">
         <f>'IPA Zeitplanung'!L$4</f>
-        <v>42371</v>
+        <v>42706</v>
       </c>
       <c r="C5" s="5">
         <f>'IPA Zeitplanung'!L32</f>
@@ -4633,9 +4493,9 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
-        <f>'IPA Zeitplanung'!M$4</f>
-        <v>42372</v>
+      <c r="B6" s="7" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C6" s="5">
         <f>'IPA Zeitplanung'!M32</f>
@@ -4646,9 +4506,9 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
-        <f>'IPA Zeitplanung'!N$4</f>
-        <v>42373</v>
+      <c r="B7" s="7" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C7" s="5">
         <f>'IPA Zeitplanung'!N32</f>
@@ -4660,8 +4520,8 @@
         <v>1</v>
       </c>
       <c r="B8" s="7">
-        <f>'IPA Zeitplanung'!O$4</f>
-        <v>42374</v>
+        <f>'IPA Zeitplanung'!M$4</f>
+        <v>42709</v>
       </c>
       <c r="C8" s="5">
         <f>'IPA Zeitplanung'!O32</f>
@@ -4673,8 +4533,8 @@
         <v>1</v>
       </c>
       <c r="B9" s="7">
-        <f>'IPA Zeitplanung'!P$4</f>
-        <v>42377</v>
+        <f>'IPA Zeitplanung'!N$4</f>
+        <v>42710</v>
       </c>
       <c r="C9" s="5">
         <f>'IPA Zeitplanung'!P32</f>
@@ -4686,8 +4546,8 @@
         <v>1</v>
       </c>
       <c r="B10" s="7">
-        <f>'IPA Zeitplanung'!Q$4</f>
-        <v>42378</v>
+        <f>'IPA Zeitplanung'!O$4</f>
+        <v>42711</v>
       </c>
       <c r="C10" s="5">
         <f>'IPA Zeitplanung'!Q32</f>
@@ -4698,9 +4558,9 @@
       <c r="A11" s="6">
         <v>0.4</v>
       </c>
-      <c r="B11" s="7">
-        <f>'IPA Zeitplanung'!R$4</f>
-        <v>42379</v>
+      <c r="B11" s="7" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C11" s="5">
         <f>'IPA Zeitplanung'!R32</f>
@@ -4711,9 +4571,9 @@
       <c r="A12" s="6">
         <v>0</v>
       </c>
-      <c r="B12" s="7">
-        <f>'IPA Zeitplanung'!S$4</f>
-        <v>42380</v>
+      <c r="B12" s="7" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C12" s="5">
         <f>'IPA Zeitplanung'!S32</f>
@@ -4724,9 +4584,9 @@
       <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
-        <f>'IPA Zeitplanung'!T$4</f>
-        <v>42381</v>
+      <c r="B13" s="7" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C13" s="5">
         <f>'IPA Zeitplanung'!T32</f>
@@ -4737,9 +4597,9 @@
       <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="7">
-        <f>'IPA Zeitplanung'!U$4</f>
-        <v>42384</v>
+      <c r="B14" s="7" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C14" s="5">
         <f>'IPA Zeitplanung'!U32</f>
@@ -4751,8 +4611,8 @@
         <v>1</v>
       </c>
       <c r="B15" s="7">
-        <f>'IPA Zeitplanung'!V$4</f>
-        <v>42385</v>
+        <f>'IPA Zeitplanung'!P$4</f>
+        <v>42716</v>
       </c>
       <c r="C15" s="5">
         <f>'IPA Zeitplanung'!V32</f>
@@ -4764,8 +4624,8 @@
         <v>1</v>
       </c>
       <c r="B16" s="7">
-        <f>'IPA Zeitplanung'!W$4</f>
-        <v>42386</v>
+        <f>'IPA Zeitplanung'!Q$4</f>
+        <v>42717</v>
       </c>
       <c r="C16" s="5">
         <f>'IPA Zeitplanung'!W32</f>
@@ -4777,8 +4637,8 @@
         <v>0</v>
       </c>
       <c r="B17" s="7">
-        <f>'IPA Zeitplanung'!X$4</f>
-        <v>42387</v>
+        <f>'IPA Zeitplanung'!R$4</f>
+        <v>42718</v>
       </c>
       <c r="C17" s="5">
         <f>'IPA Zeitplanung'!X32</f>
@@ -4790,8 +4650,8 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="7">
-        <f>'IPA Zeitplanung'!Y$4</f>
-        <v>42388</v>
+        <f>'IPA Zeitplanung'!S$4</f>
+        <v>42719</v>
       </c>
       <c r="C18" s="5">
         <f>'IPA Zeitplanung'!Y32</f>
@@ -4803,8 +4663,8 @@
         <v>1</v>
       </c>
       <c r="B19" s="7">
-        <f>'IPA Zeitplanung'!Z$4</f>
-        <v>42391</v>
+        <f>'IPA Zeitplanung'!T$4</f>
+        <v>42720</v>
       </c>
       <c r="C19" s="5">
         <f>'IPA Zeitplanung'!Z32</f>
@@ -4817,7 +4677,7 @@
       </c>
       <c r="B20" s="7">
         <f>'IPA Zeitplanung'!AA$4</f>
-        <v>42392</v>
+        <v>0</v>
       </c>
       <c r="C20" s="5">
         <f>'IPA Zeitplanung'!AA32</f>
@@ -4830,7 +4690,7 @@
       </c>
       <c r="B21" s="7">
         <f>'IPA Zeitplanung'!AB$4</f>
-        <v>42393</v>
+        <v>0</v>
       </c>
       <c r="C21" s="5">
         <f>'IPA Zeitplanung'!AB32</f>
@@ -4842,8 +4702,8 @@
         <v>0</v>
       </c>
       <c r="B22" s="7">
-        <f>'IPA Zeitplanung'!AC$4</f>
-        <v>42394</v>
+        <f>'IPA Zeitplanung'!U$4</f>
+        <v>42723</v>
       </c>
       <c r="C22" s="5">
         <f>'IPA Zeitplanung'!AC32</f>
@@ -4855,8 +4715,8 @@
         <v>1</v>
       </c>
       <c r="B23" s="7">
-        <f>'IPA Zeitplanung'!AD$4</f>
-        <v>42395</v>
+        <f>'IPA Zeitplanung'!V$4</f>
+        <v>42724</v>
       </c>
       <c r="C23" s="5">
         <f>'IPA Zeitplanung'!AD32</f>
@@ -4879,10 +4739,10 @@
     <row r="25" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="158" t="s">
+      <c r="A27" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="159"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
@@ -4891,13 +4751,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="156"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
@@ -4905,10 +4765,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160" t="s">
+      <c r="A29" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="161"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>0</v>
@@ -4919,10 +4779,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="155" t="s">
+      <c r="A30" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="156"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
         <v>74</v>
@@ -4933,10 +4793,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160" t="s">
+      <c r="A31" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="161"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="5">
         <f>'IPA Zeitplanung'!C22</f>
         <v>29</v>
@@ -4947,13 +4807,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="155" t="s">
+      <c r="A32" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="156"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C27</f>
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="D32" s="5">
         <f>SUM('IPA Zeitplanung'!D27)</f>
@@ -4961,10 +4821,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="156"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="5">
         <f>'IPA Zeitplanung'!C29</f>
         <v>0.2</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Nr.</t>
   </si>
@@ -269,13 +269,22 @@
     <t>A simple project</t>
   </si>
   <si>
-    <t>Informieren</t>
-  </si>
-  <si>
-    <t>Spiel programmieren</t>
-  </si>
-  <si>
-    <t>Schwierigkeitsgrad</t>
+    <t>REQ. 001</t>
+  </si>
+  <si>
+    <t>REQ. 002</t>
+  </si>
+  <si>
+    <t>REQ. 003</t>
+  </si>
+  <si>
+    <t>REQ. 004</t>
+  </si>
+  <si>
+    <t>REQ. 005</t>
+  </si>
+  <si>
+    <t>REQ. 006</t>
   </si>
 </sst>
 </file>
@@ -2250,19 +2259,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.3</c:v>
+                  <c:v>34.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2</c:v>
@@ -2324,10 +2333,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2849,7 +2858,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3046,11 +3055,11 @@
       </c>
       <c r="C5" s="108">
         <f>SUM(C6:C10)</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="109">
         <f>SUM(D6:D10)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="110"/>
       <c r="F5" s="111"/>
@@ -3128,11 +3137,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="44">
-        <v>3</v>
-      </c>
-      <c r="D7" s="34" t="str">
-        <f t="shared" ref="D7:D10" si="0">IF(SUM(K7:AD7)=0," ",SUM(K7:AD7))</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="34">
+        <v>1.5</v>
       </c>
       <c r="E7" s="43">
         <v>1</v>
@@ -3174,7 +3182,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7:D10" si="0">IF(SUM(K8:AD8)=0," ",SUM(K8:AD8))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="43">
@@ -3217,11 +3225,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
+      </c>
+      <c r="D9" s="34">
+        <v>1</v>
       </c>
       <c r="E9" s="43">
         <v>1</v>
@@ -3262,10 +3269,7 @@
       <c r="C10" s="55">
         <v>3</v>
       </c>
-      <c r="D10" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="D10" s="34"/>
       <c r="E10" s="54">
         <v>1</v>
       </c>
@@ -3304,11 +3308,11 @@
       </c>
       <c r="C11" s="119">
         <f>SUM(C12:C14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11" s="108">
         <f>SUM(D12:D14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11" s="110"/>
       <c r="F11" s="111"/>
@@ -3344,19 +3348,22 @@
       <c r="B12" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="67" t="str">
-        <f>IF(SUM(K12:AD12)=0," ",SUM(K12:AD12))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E12" s="32"/>
+      <c r="C12" s="33">
+        <v>9</v>
+      </c>
+      <c r="D12" s="67">
+        <v>9</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
       <c r="F12" s="33"/>
       <c r="G12" s="68"/>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
       <c r="J12" s="99"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="38"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
       <c r="M12" s="40"/>
       <c r="N12" s="130"/>
       <c r="O12" s="130"/>
@@ -3423,9 +3430,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="32">
-        <v>1</v>
-      </c>
+      <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="68"/>
       <c r="H14" s="35"/>
@@ -3460,8 +3465,8 @@
         <v>11</v>
       </c>
       <c r="C15" s="108">
-        <f>SUM(C16:C21)</f>
-        <v>74</v>
+        <f>SUM(C16:C20)</f>
+        <v>126</v>
       </c>
       <c r="D15" s="109">
         <f>SUM(D16:D21)</f>
@@ -3502,7 +3507,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="67" t="str">
         <f>IF(SUM(K16:AD16)=0," ",SUM(K16:AD16))</f>
@@ -3518,19 +3523,19 @@
       <c r="J16" s="99"/>
       <c r="K16" s="136"/>
       <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
+      <c r="M16" s="38"/>
       <c r="N16" s="130"/>
       <c r="O16" s="130"/>
-      <c r="P16" s="136"/>
+      <c r="P16" s="38"/>
       <c r="Q16" s="130"/>
       <c r="R16" s="130"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="136"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
       <c r="V16" s="130"/>
       <c r="W16" s="130"/>
       <c r="X16" s="38"/>
-      <c r="Y16" s="33"/>
+      <c r="Y16" s="38"/>
       <c r="Z16" s="42"/>
       <c r="AA16" s="40"/>
       <c r="AB16" s="40"/>
@@ -3545,7 +3550,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="33">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="32">
@@ -3554,21 +3559,19 @@
       <c r="F17" s="33"/>
       <c r="G17" s="68"/>
       <c r="H17" s="35"/>
-      <c r="I17" s="36">
-        <v>42727</v>
-      </c>
+      <c r="I17" s="36"/>
       <c r="J17" s="99"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="136"/>
+      <c r="L17" s="38"/>
       <c r="M17" s="136"/>
       <c r="N17" s="130"/>
       <c r="O17" s="130"/>
       <c r="P17" s="136"/>
       <c r="Q17" s="130"/>
       <c r="R17" s="130"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
-      <c r="U17" s="136"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
       <c r="V17" s="130"/>
       <c r="W17" s="130"/>
       <c r="X17" s="38"/>
@@ -3587,11 +3590,11 @@
         <v>46</v>
       </c>
       <c r="C18" s="33">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D18" s="67"/>
       <c r="E18" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="68"/>
@@ -3603,16 +3606,16 @@
       <c r="M18" s="40"/>
       <c r="N18" s="130"/>
       <c r="O18" s="130"/>
-      <c r="P18" s="42"/>
+      <c r="P18" s="136"/>
       <c r="Q18" s="130"/>
       <c r="R18" s="130"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
+      <c r="S18" s="136"/>
+      <c r="T18" s="33"/>
       <c r="U18" s="40"/>
       <c r="V18" s="130"/>
       <c r="W18" s="130"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="136"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
       <c r="Z18" s="42"/>
       <c r="AA18" s="40"/>
       <c r="AB18" s="40"/>
@@ -3620,11 +3623,19 @@
       <c r="AD18" s="90"/>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="80">
+        <v>34</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="33">
+        <v>8</v>
+      </c>
       <c r="D19" s="67"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="32">
+        <v>2</v>
+      </c>
       <c r="F19" s="33"/>
       <c r="G19" s="68"/>
       <c r="H19" s="35"/>
@@ -3638,9 +3649,9 @@
       <c r="P19" s="42"/>
       <c r="Q19" s="130"/>
       <c r="R19" s="130"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="67"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="136"/>
+      <c r="U19" s="136"/>
       <c r="V19" s="130"/>
       <c r="W19" s="130"/>
       <c r="X19" s="38"/>
@@ -3652,11 +3663,19 @@
       <c r="AD19" s="90"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="80">
+        <v>35</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="44">
+        <v>24</v>
+      </c>
       <c r="D20" s="67"/>
-      <c r="E20" s="32"/>
+      <c r="E20" s="32">
+        <v>2</v>
+      </c>
       <c r="F20" s="33"/>
       <c r="G20" s="68"/>
       <c r="H20" s="35"/>
@@ -3671,11 +3690,11 @@
       <c r="Q20" s="130"/>
       <c r="R20" s="130"/>
       <c r="S20" s="40"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="67"/>
+      <c r="T20" s="136"/>
+      <c r="U20" s="136"/>
       <c r="V20" s="130"/>
       <c r="W20" s="130"/>
-      <c r="X20" s="38"/>
+      <c r="X20" s="136"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="42"/>
       <c r="AA20" s="40"/>
@@ -3684,11 +3703,19 @@
       <c r="AD20" s="90"/>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="80">
+        <v>36</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="44">
+        <v>18</v>
+      </c>
       <c r="D21" s="34"/>
-      <c r="E21" s="43"/>
+      <c r="E21" s="32">
+        <v>2</v>
+      </c>
       <c r="F21" s="33"/>
       <c r="G21" s="68"/>
       <c r="H21" s="35"/>
@@ -3704,11 +3731,11 @@
       <c r="R21" s="130"/>
       <c r="S21" s="48"/>
       <c r="T21" s="49"/>
-      <c r="U21" s="34"/>
+      <c r="U21" s="136"/>
       <c r="V21" s="130"/>
       <c r="W21" s="130"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="44"/>
+      <c r="X21" s="136"/>
+      <c r="Y21" s="136"/>
       <c r="Z21" s="69"/>
       <c r="AA21" s="48"/>
       <c r="AB21" s="48"/>
@@ -3938,7 +3965,7 @@
       </c>
       <c r="C27" s="108">
         <f>SUM(C28)</f>
-        <v>22.3</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="D27" s="109">
         <f>SUM(D28)</f>
@@ -3980,7 +4007,7 @@
       </c>
       <c r="C28" s="65">
         <f>(C5+C11+C15+C22)*0.2</f>
-        <v>22.3</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="D28" s="73" t="str">
         <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
@@ -4148,7 +4175,7 @@
       </c>
       <c r="C32" s="123">
         <f>SUM(C5+C11+C15+C22+C29)</f>
-        <v>111.7</v>
+        <v>174.2</v>
       </c>
       <c r="D32" s="123" t="str">
         <f>IF(SUM(K32:AD32)=0," ",SUM(K32:AD32))</f>
@@ -4757,11 +4784,11 @@
       <c r="B28" s="147"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4771,11 +4798,11 @@
       <c r="B29" s="152"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D29" s="5">
         <f>'IPA Zeitplanung'!D11</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4785,7 +4812,7 @@
       <c r="B30" s="147"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
@@ -4813,7 +4840,7 @@
       <c r="B32" s="147"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C27</f>
-        <v>22.3</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="D32" s="5">
         <f>SUM('IPA Zeitplanung'!D27)</f>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -2265,13 +2265,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.800000000000004</c:v>
+                  <c:v>37.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2</c:v>
@@ -2333,7 +2333,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
@@ -2858,7 +2858,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D5" s="109">
         <f>SUM(D6:D10)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="110"/>
       <c r="F5" s="111"/>
@@ -3182,7 +3182,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="34" t="str">
-        <f t="shared" ref="D7:D10" si="0">IF(SUM(K8:AD8)=0," ",SUM(K8:AD8))</f>
+        <f t="shared" ref="D8" si="0">IF(SUM(K8:AD8)=0," ",SUM(K8:AD8))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="43">
@@ -3228,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="34">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="43">
         <v>1</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C15" s="108">
         <f>SUM(C16:C20)</f>
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D15" s="109">
         <f>SUM(D16:D21)</f>
@@ -3507,7 +3507,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="33">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D16" s="67" t="str">
         <f>IF(SUM(K16:AD16)=0," ",SUM(K16:AD16))</f>
@@ -3523,10 +3523,10 @@
       <c r="J16" s="99"/>
       <c r="K16" s="136"/>
       <c r="L16" s="136"/>
-      <c r="M16" s="38"/>
+      <c r="M16" s="136"/>
       <c r="N16" s="130"/>
       <c r="O16" s="130"/>
-      <c r="P16" s="38"/>
+      <c r="P16" s="136"/>
       <c r="Q16" s="130"/>
       <c r="R16" s="130"/>
       <c r="S16" s="38"/>
@@ -3563,14 +3563,14 @@
       <c r="J17" s="99"/>
       <c r="K17" s="68"/>
       <c r="L17" s="38"/>
-      <c r="M17" s="136"/>
+      <c r="M17" s="38"/>
       <c r="N17" s="130"/>
       <c r="O17" s="130"/>
-      <c r="P17" s="136"/>
+      <c r="P17" s="38"/>
       <c r="Q17" s="130"/>
       <c r="R17" s="130"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="136"/>
       <c r="U17" s="38"/>
       <c r="V17" s="130"/>
       <c r="W17" s="130"/>
@@ -3606,12 +3606,12 @@
       <c r="M18" s="40"/>
       <c r="N18" s="130"/>
       <c r="O18" s="130"/>
-      <c r="P18" s="136"/>
+      <c r="P18" s="38"/>
       <c r="Q18" s="130"/>
       <c r="R18" s="130"/>
       <c r="S18" s="136"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="40"/>
+      <c r="T18" s="136"/>
+      <c r="U18" s="136"/>
       <c r="V18" s="130"/>
       <c r="W18" s="130"/>
       <c r="X18" s="38"/>
@@ -3643,7 +3643,7 @@
       <c r="J19" s="99"/>
       <c r="K19" s="68"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="40"/>
+      <c r="M19" s="38"/>
       <c r="N19" s="130"/>
       <c r="O19" s="130"/>
       <c r="P19" s="42"/>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C27" s="108">
         <f>SUM(C28)</f>
-        <v>34.800000000000004</v>
+        <v>37.6</v>
       </c>
       <c r="D27" s="109">
         <f>SUM(D28)</f>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="C28" s="65">
         <f>(C5+C11+C15+C22)*0.2</f>
-        <v>34.800000000000004</v>
+        <v>37.6</v>
       </c>
       <c r="D28" s="73" t="str">
         <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="C32" s="123">
         <f>SUM(C5+C11+C15+C22+C29)</f>
-        <v>174.2</v>
+        <v>188.2</v>
       </c>
       <c r="D32" s="123" t="str">
         <f>IF(SUM(K32:AD32)=0," ",SUM(K32:AD32))</f>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4812,7 +4812,7 @@
       <c r="B30" s="147"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
@@ -4840,7 +4840,7 @@
       <c r="B32" s="147"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C27</f>
-        <v>34.800000000000004</v>
+        <v>37.6</v>
       </c>
       <c r="D32" s="5">
         <f>SUM('IPA Zeitplanung'!D27)</f>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Ist Arbeitszeit - Übersicht" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AD$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AD$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Nr.</t>
   </si>
@@ -269,15 +269,6 @@
     <t>A simple project</t>
   </si>
   <si>
-    <t>REQ. 001</t>
-  </si>
-  <si>
-    <t>REQ. 002</t>
-  </si>
-  <si>
-    <t>REQ. 003</t>
-  </si>
-  <si>
     <t>REQ. 004</t>
   </si>
   <si>
@@ -285,6 +276,27 @@
   </si>
   <si>
     <t>REQ. 006</t>
+  </si>
+  <si>
+    <t>REQ. 007</t>
+  </si>
+  <si>
+    <t>REQ. 008</t>
+  </si>
+  <si>
+    <t>REQ. 009</t>
+  </si>
+  <si>
+    <t>REQ. 010</t>
+  </si>
+  <si>
+    <t>REQ. 011</t>
+  </si>
+  <si>
+    <t>REQ. 012</t>
+  </si>
+  <si>
+    <t>REQ. 013</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1491,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1923,6 +1935,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2265,13 +2280,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.6</c:v>
+                  <c:v>21.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2</c:v>
@@ -2339,16 +2354,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,13 +2867,13 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2969,7 +2984,7 @@
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
     </row>
-    <row r="4" spans="1:34" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
         <v>0</v>
       </c>
@@ -3043,8 +3058,9 @@
       <c r="Y4" s="121">
         <v>42727</v>
       </c>
-      <c r="AA4" s="121"/>
+      <c r="Z4" s="121"/>
       <c r="AB4" s="121"/>
+      <c r="AD4" s="90"/>
     </row>
     <row r="5" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="105">
@@ -3466,11 +3482,11 @@
       </c>
       <c r="C15" s="108">
         <f>SUM(C16:C20)</f>
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="D15" s="109">
         <f>SUM(D16:D21)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E15" s="110"/>
       <c r="F15" s="111"/>
@@ -3504,17 +3520,17 @@
         <v>31</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="33">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D16" s="67" t="str">
         <f>IF(SUM(K16:AD16)=0," ",SUM(K16:AD16))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="68"/>
@@ -3523,10 +3539,10 @@
       <c r="J16" s="99"/>
       <c r="K16" s="136"/>
       <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
+      <c r="M16" s="38"/>
       <c r="N16" s="130"/>
       <c r="O16" s="130"/>
-      <c r="P16" s="136"/>
+      <c r="P16" s="38"/>
       <c r="Q16" s="130"/>
       <c r="R16" s="130"/>
       <c r="S16" s="38"/>
@@ -3547,12 +3563,14 @@
         <v>32</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="33">
-        <v>16</v>
-      </c>
-      <c r="D17" s="67"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="67">
+        <v>8</v>
+      </c>
       <c r="E17" s="32">
         <v>1</v>
       </c>
@@ -3563,14 +3581,14 @@
       <c r="J17" s="99"/>
       <c r="K17" s="68"/>
       <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
+      <c r="M17" s="136"/>
       <c r="N17" s="130"/>
       <c r="O17" s="130"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="130"/>
       <c r="R17" s="130"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
       <c r="U17" s="38"/>
       <c r="V17" s="130"/>
       <c r="W17" s="130"/>
@@ -3587,12 +3605,14 @@
         <v>33</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="33">
-        <v>70</v>
-      </c>
-      <c r="D18" s="67"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="67">
+        <v>16</v>
+      </c>
       <c r="E18" s="32">
         <v>1</v>
       </c>
@@ -3606,12 +3626,12 @@
       <c r="M18" s="40"/>
       <c r="N18" s="130"/>
       <c r="O18" s="130"/>
-      <c r="P18" s="38"/>
+      <c r="P18" s="136"/>
       <c r="Q18" s="130"/>
       <c r="R18" s="130"/>
       <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
-      <c r="U18" s="136"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
       <c r="V18" s="130"/>
       <c r="W18" s="130"/>
       <c r="X18" s="38"/>
@@ -3627,14 +3647,14 @@
         <v>34</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="33">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="68"/>
@@ -3667,14 +3687,14 @@
         <v>35</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="44">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D20" s="67"/>
       <c r="E20" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="68"/>
@@ -3691,10 +3711,10 @@
       <c r="R20" s="130"/>
       <c r="S20" s="40"/>
       <c r="T20" s="136"/>
-      <c r="U20" s="136"/>
+      <c r="U20" s="38"/>
       <c r="V20" s="130"/>
       <c r="W20" s="130"/>
-      <c r="X20" s="136"/>
+      <c r="X20" s="38"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="42"/>
       <c r="AA20" s="40"/>
@@ -3707,14 +3727,14 @@
         <v>36</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="44">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="68"/>
@@ -3734,8 +3754,8 @@
       <c r="U21" s="136"/>
       <c r="V21" s="130"/>
       <c r="W21" s="130"/>
-      <c r="X21" s="136"/>
-      <c r="Y21" s="136"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
       <c r="Z21" s="69"/>
       <c r="AA21" s="48"/>
       <c r="AB21" s="48"/>
@@ -3743,61 +3763,56 @@
       <c r="AD21" s="88"/>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="105">
-        <v>40</v>
-      </c>
-      <c r="B22" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="108">
-        <f>SUM(C23:C26)</f>
-        <v>29</v>
-      </c>
-      <c r="D22" s="109">
-        <f>SUM(D23:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="115"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="112"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="116"/>
-      <c r="AB22" s="116"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="118"/>
+      <c r="A22" s="80">
+        <v>37</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="44">
+        <v>8</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="65"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="130"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="153"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="90"/>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="80">
-        <v>30</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="33">
+        <v>38</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="44">
         <v>8</v>
       </c>
-      <c r="D23" s="67" t="str">
-        <f>IF(SUM(K23:AD23)=0," ",SUM(K23:AD23))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="D23" s="67"/>
       <c r="E23" s="32">
         <v>1</v>
       </c>
@@ -3805,10 +3820,10 @@
       <c r="G23" s="68"/>
       <c r="H23" s="35"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="100"/>
+      <c r="J23" s="99"/>
       <c r="K23" s="68"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="40"/>
+      <c r="M23" s="38"/>
       <c r="N23" s="130"/>
       <c r="O23" s="130"/>
       <c r="P23" s="42"/>
@@ -3816,596 +3831,758 @@
       <c r="R23" s="130"/>
       <c r="S23" s="40"/>
       <c r="T23" s="41"/>
-      <c r="U23" s="67"/>
+      <c r="U23" s="38"/>
       <c r="V23" s="130"/>
       <c r="W23" s="130"/>
       <c r="X23" s="38"/>
-      <c r="Y23" s="33"/>
+      <c r="Y23" s="153"/>
       <c r="Z23" s="42"/>
       <c r="AA23" s="40"/>
       <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="93"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="90"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="80">
-        <v>31</v>
-      </c>
-      <c r="B24" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="33">
-        <v>8</v>
-      </c>
-      <c r="D24" s="67" t="str">
-        <f>IF(SUM(K24:AD24)=0," ",SUM(K24:AD24))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="44">
+        <v>3</v>
+      </c>
+      <c r="D24" s="67"/>
       <c r="E24" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="68"/>
       <c r="H24" s="35"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="100"/>
+      <c r="J24" s="99"/>
       <c r="K24" s="68"/>
       <c r="L24" s="38"/>
       <c r="M24" s="40"/>
       <c r="N24" s="130"/>
       <c r="O24" s="130"/>
-      <c r="P24" s="42"/>
+      <c r="P24" s="47"/>
       <c r="Q24" s="130"/>
       <c r="R24" s="130"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="67"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="38"/>
       <c r="V24" s="130"/>
       <c r="W24" s="130"/>
       <c r="X24" s="38"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="94"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="153"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="90"/>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="80">
-        <v>32</v>
-      </c>
-      <c r="B25" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="65">
-        <v>5</v>
-      </c>
-      <c r="D25" s="67" t="str">
-        <f>IF(SUM(K25:AD25)=0," ",SUM(K25:AD25))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E25" s="70">
-        <v>1</v>
-      </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="50"/>
+        <v>10</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="44">
+        <v>8</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="32">
+        <v>2</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="36"/>
-      <c r="J25" s="100"/>
+      <c r="J25" s="99"/>
       <c r="K25" s="53"/>
       <c r="L25" s="46"/>
-      <c r="M25" s="72"/>
+      <c r="M25" s="48"/>
       <c r="N25" s="130"/>
       <c r="O25" s="130"/>
       <c r="P25" s="71"/>
       <c r="Q25" s="130"/>
       <c r="R25" s="130"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="73"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="38"/>
       <c r="V25" s="130"/>
       <c r="W25" s="130"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="40"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="153"/>
+      <c r="AA25" s="153"/>
       <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="87"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="90"/>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79">
-        <v>33</v>
-      </c>
-      <c r="B26" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="55">
+      <c r="A26" s="105">
+        <v>40</v>
+      </c>
+      <c r="B26" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="108">
+        <f>SUM(C27:C30)</f>
+        <v>29</v>
+      </c>
+      <c r="D26" s="109">
+        <v>4</v>
+      </c>
+      <c r="E26" s="115"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="115"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="116"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="118"/>
+    </row>
+    <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="80">
+        <v>30</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="33">
         <v>8</v>
       </c>
-      <c r="D26" s="64" t="str">
-        <f>IF(SUM(K26:AD26)=0," ",SUM(K26:AD26))</f>
+      <c r="D27" s="67" t="str">
+        <f>IF(SUM(K27:AD27)=0," ",SUM(K27:AD27))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="54">
-        <v>2</v>
-      </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="130"/>
-      <c r="W26" s="130"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="96"/>
-    </row>
-    <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="105">
-        <v>50</v>
-      </c>
-      <c r="B27" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="108">
-        <f>SUM(C28)</f>
-        <v>37.6</v>
-      </c>
-      <c r="D27" s="109">
-        <f>SUM(D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="116"/>
-      <c r="X27" s="116"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="107"/>
-      <c r="AA27" s="116"/>
-      <c r="AB27" s="116"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="118"/>
+      <c r="E27" s="32">
+        <v>1</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="93"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="81">
-        <v>51</v>
-      </c>
-      <c r="B28" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="65">
-        <f>(C5+C11+C15+C22)*0.2</f>
-        <v>37.6</v>
-      </c>
-      <c r="D28" s="73" t="str">
+      <c r="A28" s="80">
+        <v>31</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="33">
+        <v>8</v>
+      </c>
+      <c r="D28" s="67" t="str">
         <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="70">
-        <v>3</v>
-      </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="66"/>
+      <c r="E28" s="32">
+        <v>1</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="72"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="40"/>
       <c r="N28" s="130"/>
       <c r="O28" s="130"/>
-      <c r="P28" s="71"/>
+      <c r="P28" s="42"/>
       <c r="Q28" s="130"/>
       <c r="R28" s="130"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="73"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="67"/>
       <c r="V28" s="130"/>
       <c r="W28" s="130"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="87"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="94"/>
     </row>
     <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="105">
-        <v>60</v>
-      </c>
-      <c r="B29" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="108">
-        <f>SUM(C30:C31)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="109">
-        <f>SUM(D30:D31)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="117"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="115"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="116"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="116"/>
-      <c r="AB29" s="116"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="118"/>
+      <c r="A29" s="80">
+        <v>32</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="65">
+        <v>5</v>
+      </c>
+      <c r="D29" s="67" t="str">
+        <f>IF(SUM(K29:AD29)=0," ",SUM(K29:AD29))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E29" s="70">
+        <v>1</v>
+      </c>
+      <c r="F29" s="45"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="87"/>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="80">
-        <v>61</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="67" t="str">
+      <c r="A30" s="79">
+        <v>33</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="55">
+        <v>8</v>
+      </c>
+      <c r="D30" s="64" t="str">
         <f>IF(SUM(K30:AD30)=0," ",SUM(K30:AD30))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="54">
         <v>2</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="35"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="36"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="40"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="60"/>
       <c r="N30" s="130"/>
       <c r="O30" s="130"/>
-      <c r="P30" s="42"/>
+      <c r="P30" s="63"/>
       <c r="Q30" s="130"/>
       <c r="R30" s="130"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="67"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="64"/>
       <c r="V30" s="130"/>
       <c r="W30" s="130"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40"/>
-      <c r="AD30" s="94"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="96"/>
     </row>
     <row r="31" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79">
-        <v>62</v>
-      </c>
-      <c r="B31" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="D31" s="34" t="str">
-        <f>IF(SUM(K31:AD31)=0," ",SUM(K31:AD31))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E31" s="43">
-        <v>1</v>
-      </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="94"/>
-    </row>
-    <row r="32" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="104"/>
-      <c r="B32" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="123">
-        <f>SUM(C5+C11+C15+C22+C29)</f>
-        <v>188.2</v>
-      </c>
-      <c r="D32" s="123" t="str">
+      <c r="A31" s="105">
+        <v>50</v>
+      </c>
+      <c r="B31" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="108">
+        <f>SUM(C32)</f>
+        <v>21.400000000000002</v>
+      </c>
+      <c r="D31" s="109">
+        <v>4</v>
+      </c>
+      <c r="E31" s="110"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="116"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="116"/>
+      <c r="AB31" s="116"/>
+      <c r="AC31" s="117"/>
+      <c r="AD31" s="118"/>
+    </row>
+    <row r="32" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="81">
+        <v>51</v>
+      </c>
+      <c r="B32" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="65">
+        <f>(C5+C11+C15+C26)*0.2</f>
+        <v>21.400000000000002</v>
+      </c>
+      <c r="D32" s="73" t="str">
         <f>IF(SUM(K32:AD32)=0," ",SUM(K32:AD32))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="126">
-        <f t="shared" ref="K32:AD32" si="2">SUM(K5:K31)</f>
+      <c r="E32" s="70">
+        <v>3</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="130"/>
+      <c r="W32" s="130"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="87"/>
+    </row>
+    <row r="33" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="105">
+        <v>60</v>
+      </c>
+      <c r="B33" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="108">
+        <f>SUM(C34:C35)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="109">
+        <v>4</v>
+      </c>
+      <c r="E33" s="110"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="112"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="116"/>
+      <c r="AB33" s="116"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="118"/>
+    </row>
+    <row r="34" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="80">
+        <v>61</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="67" t="str">
+        <f>IF(SUM(K34:AD34)=0," ",SUM(K34:AD34))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E34" s="32">
+        <v>2</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="130"/>
+      <c r="O34" s="130"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="130"/>
+      <c r="R34" s="130"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="130"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="94"/>
+    </row>
+    <row r="35" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="79">
+        <v>62</v>
+      </c>
+      <c r="B35" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="34" t="str">
+        <f>IF(SUM(K35:AD35)=0," ",SUM(K35:AD35))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E35" s="43">
+        <v>1</v>
+      </c>
+      <c r="F35" s="76"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="94"/>
+    </row>
+    <row r="36" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="104"/>
+      <c r="B36" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="123">
+        <f>SUM(C5+C11+C15+C26+C33)</f>
+        <v>107.2</v>
+      </c>
+      <c r="D36" s="123">
+        <f>SUM(D15,D26,D31,D33)</f>
+        <v>36</v>
+      </c>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="126">
+        <f t="shared" ref="K36:AD36" si="2">SUM(K5:K35)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="123">
+      <c r="L36" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="127">
+      <c r="M36" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="127">
+      <c r="N36" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O32" s="127">
-        <f>SUM(O5:O31)</f>
+      <c r="O36" s="127">
+        <f>SUM(O5:O35)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="127">
+      <c r="P36" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="123">
+      <c r="Q36" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R32" s="127">
+      <c r="R36" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S32" s="123">
+      <c r="S36" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T32" s="127">
+      <c r="T36" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U32" s="127">
+      <c r="U36" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V32" s="123">
+      <c r="V36" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W32" s="127">
+      <c r="W36" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X32" s="123">
+      <c r="X36" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="127">
+      <c r="Y36" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="127">
+      <c r="Z36" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="123">
+      <c r="AA36" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="127">
+      <c r="AB36" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="123">
+      <c r="AC36" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="128">
+      <c r="AD36" s="128">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="129"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-    </row>
-    <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="130"/>
-      <c r="B34" s="15" t="s">
+    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="129"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="140"/>
+    </row>
+    <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="130"/>
+      <c r="B38" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="139"/>
-      <c r="P34" s="139"/>
-      <c r="Q34" s="139"/>
-      <c r="R34" s="139"/>
-      <c r="S34" s="139"/>
-      <c r="T34" s="139"/>
-      <c r="U34" s="139"/>
-      <c r="V34" s="139"/>
-      <c r="W34" s="139"/>
-      <c r="X34" s="139"/>
-      <c r="Y34" s="139"/>
-      <c r="Z34" s="139"/>
-      <c r="AA34" s="139"/>
-      <c r="AB34" s="139"/>
-      <c r="AC34" s="139"/>
-      <c r="AD34" s="139"/>
-    </row>
-    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="137"/>
-      <c r="M35" s="137"/>
-      <c r="N35" s="137"/>
-      <c r="O35" s="137"/>
-      <c r="P35" s="137"/>
-      <c r="Q35" s="137"/>
-      <c r="R35" s="137"/>
-      <c r="S35" s="137"/>
-      <c r="T35" s="137"/>
-      <c r="U35" s="137"/>
-      <c r="V35" s="137"/>
-      <c r="W35" s="137"/>
-      <c r="X35" s="137"/>
-      <c r="Y35" s="137"/>
-      <c r="Z35" s="137"/>
-      <c r="AA35" s="137"/>
-      <c r="AB35" s="137"/>
-      <c r="AC35" s="137"/>
-      <c r="AD35" s="137"/>
-    </row>
-    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="137"/>
-      <c r="M36" s="137"/>
-      <c r="N36" s="137"/>
-      <c r="O36" s="137"/>
-      <c r="P36" s="137"/>
-      <c r="Q36" s="137"/>
-      <c r="R36" s="137"/>
-      <c r="S36" s="137"/>
-      <c r="T36" s="137"/>
-      <c r="U36" s="137"/>
-      <c r="V36" s="137"/>
-      <c r="W36" s="137"/>
-      <c r="X36" s="137"/>
-      <c r="Y36" s="137"/>
-      <c r="Z36" s="137"/>
-      <c r="AA36" s="137"/>
-      <c r="AB36" s="137"/>
-      <c r="AC36" s="137"/>
-      <c r="AD36" s="137"/>
-    </row>
-    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="J38" s="9"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="139"/>
+      <c r="M38" s="139"/>
+      <c r="N38" s="139"/>
+      <c r="O38" s="139"/>
+      <c r="P38" s="139"/>
+      <c r="Q38" s="139"/>
+      <c r="R38" s="139"/>
+      <c r="S38" s="139"/>
+      <c r="T38" s="139"/>
+      <c r="U38" s="139"/>
+      <c r="V38" s="139"/>
+      <c r="W38" s="139"/>
+      <c r="X38" s="139"/>
+      <c r="Y38" s="139"/>
+      <c r="Z38" s="139"/>
+      <c r="AA38" s="139"/>
+      <c r="AB38" s="139"/>
+      <c r="AC38" s="139"/>
+      <c r="AD38" s="139"/>
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J39" s="9"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="137"/>
+      <c r="M39" s="137"/>
+      <c r="N39" s="137"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="137"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="137"/>
+      <c r="S39" s="137"/>
+      <c r="T39" s="137"/>
+      <c r="U39" s="137"/>
+      <c r="V39" s="137"/>
+      <c r="W39" s="137"/>
+      <c r="X39" s="137"/>
+      <c r="Y39" s="137"/>
+      <c r="Z39" s="137"/>
+      <c r="AA39" s="137"/>
+      <c r="AB39" s="137"/>
+      <c r="AC39" s="137"/>
+      <c r="AD39" s="137"/>
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="20"/>
-      <c r="J40" s="9"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="137"/>
+      <c r="N40" s="137"/>
+      <c r="O40" s="137"/>
+      <c r="P40" s="137"/>
+      <c r="Q40" s="137"/>
+      <c r="R40" s="137"/>
+      <c r="S40" s="137"/>
+      <c r="T40" s="137"/>
+      <c r="U40" s="137"/>
+      <c r="V40" s="137"/>
+      <c r="W40" s="137"/>
+      <c r="X40" s="137"/>
+      <c r="Y40" s="137"/>
+      <c r="Z40" s="137"/>
+      <c r="AA40" s="137"/>
+      <c r="AB40" s="137"/>
+      <c r="AC40" s="137"/>
+      <c r="AD40" s="137"/>
     </row>
     <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="18"/>
       <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="20"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K35:AD36"/>
-    <mergeCell ref="K34:AD34"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="K39:AD40"/>
+    <mergeCell ref="K38:AD38"/>
+    <mergeCell ref="B37:J37"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="Z3:AD3"/>
@@ -4499,7 +4676,7 @@
         <v>42705</v>
       </c>
       <c r="C4" s="5">
-        <f>'IPA Zeitplanung'!K32</f>
+        <f>'IPA Zeitplanung'!K36</f>
         <v>0</v>
       </c>
     </row>
@@ -4512,7 +4689,7 @@
         <v>42706</v>
       </c>
       <c r="C5" s="5">
-        <f>'IPA Zeitplanung'!L32</f>
+        <f>'IPA Zeitplanung'!L36</f>
         <v>0</v>
       </c>
     </row>
@@ -4525,7 +4702,7 @@
         <v>#REF!</v>
       </c>
       <c r="C6" s="5">
-        <f>'IPA Zeitplanung'!M32</f>
+        <f>'IPA Zeitplanung'!M36</f>
         <v>0</v>
       </c>
     </row>
@@ -4538,7 +4715,7 @@
         <v>#REF!</v>
       </c>
       <c r="C7" s="5">
-        <f>'IPA Zeitplanung'!N32</f>
+        <f>'IPA Zeitplanung'!N36</f>
         <v>0</v>
       </c>
     </row>
@@ -4551,7 +4728,7 @@
         <v>42709</v>
       </c>
       <c r="C8" s="5">
-        <f>'IPA Zeitplanung'!O32</f>
+        <f>'IPA Zeitplanung'!O36</f>
         <v>0</v>
       </c>
     </row>
@@ -4564,7 +4741,7 @@
         <v>42710</v>
       </c>
       <c r="C9" s="5">
-        <f>'IPA Zeitplanung'!P32</f>
+        <f>'IPA Zeitplanung'!P36</f>
         <v>0</v>
       </c>
     </row>
@@ -4577,7 +4754,7 @@
         <v>42711</v>
       </c>
       <c r="C10" s="5">
-        <f>'IPA Zeitplanung'!Q32</f>
+        <f>'IPA Zeitplanung'!Q36</f>
         <v>0</v>
       </c>
     </row>
@@ -4590,7 +4767,7 @@
         <v>#REF!</v>
       </c>
       <c r="C11" s="5">
-        <f>'IPA Zeitplanung'!R32</f>
+        <f>'IPA Zeitplanung'!R36</f>
         <v>0</v>
       </c>
     </row>
@@ -4603,7 +4780,7 @@
         <v>#REF!</v>
       </c>
       <c r="C12" s="5">
-        <f>'IPA Zeitplanung'!S32</f>
+        <f>'IPA Zeitplanung'!S36</f>
         <v>0</v>
       </c>
     </row>
@@ -4616,7 +4793,7 @@
         <v>#REF!</v>
       </c>
       <c r="C13" s="5">
-        <f>'IPA Zeitplanung'!T32</f>
+        <f>'IPA Zeitplanung'!T36</f>
         <v>0</v>
       </c>
     </row>
@@ -4629,7 +4806,7 @@
         <v>#REF!</v>
       </c>
       <c r="C14" s="5">
-        <f>'IPA Zeitplanung'!U32</f>
+        <f>'IPA Zeitplanung'!U36</f>
         <v>0</v>
       </c>
     </row>
@@ -4642,7 +4819,7 @@
         <v>42716</v>
       </c>
       <c r="C15" s="5">
-        <f>'IPA Zeitplanung'!V32</f>
+        <f>'IPA Zeitplanung'!V36</f>
         <v>0</v>
       </c>
     </row>
@@ -4655,7 +4832,7 @@
         <v>42717</v>
       </c>
       <c r="C16" s="5">
-        <f>'IPA Zeitplanung'!W32</f>
+        <f>'IPA Zeitplanung'!W36</f>
         <v>0</v>
       </c>
     </row>
@@ -4668,7 +4845,7 @@
         <v>42718</v>
       </c>
       <c r="C17" s="5">
-        <f>'IPA Zeitplanung'!X32</f>
+        <f>'IPA Zeitplanung'!X36</f>
         <v>0</v>
       </c>
     </row>
@@ -4681,7 +4858,7 @@
         <v>42719</v>
       </c>
       <c r="C18" s="5">
-        <f>'IPA Zeitplanung'!Y32</f>
+        <f>'IPA Zeitplanung'!Y36</f>
         <v>0</v>
       </c>
     </row>
@@ -4694,7 +4871,7 @@
         <v>42720</v>
       </c>
       <c r="C19" s="5">
-        <f>'IPA Zeitplanung'!Z32</f>
+        <f>'IPA Zeitplanung'!Z36</f>
         <v>0</v>
       </c>
     </row>
@@ -4707,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="5">
-        <f>'IPA Zeitplanung'!AA32</f>
+        <f>'IPA Zeitplanung'!AA36</f>
         <v>0</v>
       </c>
     </row>
@@ -4720,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="5">
-        <f>'IPA Zeitplanung'!AB32</f>
+        <f>'IPA Zeitplanung'!AB36</f>
         <v>0</v>
       </c>
     </row>
@@ -4733,7 +4910,7 @@
         <v>42723</v>
       </c>
       <c r="C22" s="5">
-        <f>'IPA Zeitplanung'!AC32</f>
+        <f>'IPA Zeitplanung'!AC36</f>
         <v>0</v>
       </c>
     </row>
@@ -4746,7 +4923,7 @@
         <v>42724</v>
       </c>
       <c r="C23" s="5">
-        <f>'IPA Zeitplanung'!AD32</f>
+        <f>'IPA Zeitplanung'!AD36</f>
         <v>0</v>
       </c>
     </row>
@@ -4812,11 +4989,11 @@
       <c r="B30" s="147"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4825,12 +5002,12 @@
       </c>
       <c r="B31" s="152"/>
       <c r="C31" s="5">
-        <f>'IPA Zeitplanung'!C22</f>
+        <f>'IPA Zeitplanung'!C26</f>
         <v>29</v>
       </c>
       <c r="D31" s="5">
-        <f>'IPA Zeitplanung'!D22</f>
-        <v>0</v>
+        <f>'IPA Zeitplanung'!D26</f>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4839,12 +5016,12 @@
       </c>
       <c r="B32" s="147"/>
       <c r="C32" s="5">
-        <f>'IPA Zeitplanung'!C27</f>
-        <v>37.6</v>
+        <f>'IPA Zeitplanung'!C31</f>
+        <v>21.400000000000002</v>
       </c>
       <c r="D32" s="5">
-        <f>SUM('IPA Zeitplanung'!D27)</f>
-        <v>0</v>
+        <f>SUM('IPA Zeitplanung'!D31)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4853,12 +5030,12 @@
       </c>
       <c r="B33" s="147"/>
       <c r="C33" s="5">
-        <f>'IPA Zeitplanung'!C29</f>
+        <f>'IPA Zeitplanung'!C33</f>
         <v>0.2</v>
       </c>
       <c r="D33" s="5">
-        <f>'IPA Zeitplanung'!D29</f>
-        <v>0</v>
+        <f>'IPA Zeitplanung'!D33</f>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Nr.</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>REQ. 013</t>
+  </si>
+  <si>
+    <t>Krank</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +494,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="80">
     <border>
@@ -1491,7 +1500,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1891,6 +1900,9 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1935,7 +1947,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2354,7 +2372,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -2870,10 +2888,10 @@
   <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2893,38 +2911,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
     </row>
     <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
@@ -2941,44 +2959,44 @@
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78"/>
       <c r="B3" s="82"/>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="143"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="26"/>
       <c r="H3" s="25"/>
       <c r="I3" s="26"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="142" t="s">
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="142" t="s">
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="142" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="145"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
@@ -3058,8 +3076,15 @@
       <c r="Y4" s="121">
         <v>42727</v>
       </c>
-      <c r="Z4" s="121"/>
-      <c r="AB4" s="121"/>
+      <c r="Z4" s="121">
+        <v>42740</v>
+      </c>
+      <c r="AA4" s="121">
+        <v>42741</v>
+      </c>
+      <c r="AB4" s="121">
+        <v>42744</v>
+      </c>
       <c r="AD4" s="90"/>
     </row>
     <row r="5" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3486,7 +3511,7 @@
       </c>
       <c r="D15" s="109">
         <f>SUM(D16:D21)</f>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E15" s="110"/>
       <c r="F15" s="111"/>
@@ -3525,9 +3550,8 @@
       <c r="C16" s="33">
         <v>3</v>
       </c>
-      <c r="D16" s="67" t="str">
-        <f>IF(SUM(K16:AD16)=0," ",SUM(K16:AD16))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D16" s="67">
+        <v>0</v>
       </c>
       <c r="E16" s="32">
         <v>2</v>
@@ -3652,7 +3676,9 @@
       <c r="C19" s="33">
         <v>24</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="67">
+        <v>20</v>
+      </c>
       <c r="E19" s="32">
         <v>1</v>
       </c>
@@ -3671,7 +3697,7 @@
       <c r="R19" s="130"/>
       <c r="S19" s="136"/>
       <c r="T19" s="136"/>
-      <c r="U19" s="136"/>
+      <c r="U19" s="154"/>
       <c r="V19" s="130"/>
       <c r="W19" s="130"/>
       <c r="X19" s="38"/>
@@ -3751,7 +3777,7 @@
       <c r="R21" s="130"/>
       <c r="S21" s="48"/>
       <c r="T21" s="49"/>
-      <c r="U21" s="136"/>
+      <c r="U21" s="154"/>
       <c r="V21" s="130"/>
       <c r="W21" s="130"/>
       <c r="X21" s="38"/>
@@ -3794,7 +3820,7 @@
       <c r="U22" s="38"/>
       <c r="V22" s="130"/>
       <c r="W22" s="130"/>
-      <c r="X22" s="153"/>
+      <c r="X22" s="155"/>
       <c r="Y22" s="38"/>
       <c r="Z22" s="42"/>
       <c r="AA22" s="40"/>
@@ -3835,7 +3861,7 @@
       <c r="V23" s="130"/>
       <c r="W23" s="130"/>
       <c r="X23" s="38"/>
-      <c r="Y23" s="153"/>
+      <c r="Y23" s="155"/>
       <c r="Z23" s="42"/>
       <c r="AA23" s="40"/>
       <c r="AB23" s="40"/>
@@ -3876,7 +3902,7 @@
       <c r="W24" s="130"/>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
-      <c r="Z24" s="153"/>
+      <c r="Z24" s="137"/>
       <c r="AA24" s="40"/>
       <c r="AB24" s="40"/>
       <c r="AC24" s="67"/>
@@ -3916,8 +3942,8 @@
       <c r="W25" s="130"/>
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="153"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
       <c r="AB25" s="40"/>
       <c r="AC25" s="67"/>
       <c r="AD25" s="90"/>
@@ -4356,7 +4382,7 @@
       </c>
       <c r="D36" s="123">
         <f>SUM(D15,D26,D31,D33)</f>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E36" s="123"/>
       <c r="F36" s="123"/>
@@ -4447,15 +4473,15 @@
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="129"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="130"/>
@@ -4470,30 +4496,32 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="139"/>
-      <c r="N38" s="139"/>
-      <c r="O38" s="139"/>
-      <c r="P38" s="139"/>
-      <c r="Q38" s="139"/>
-      <c r="R38" s="139"/>
-      <c r="S38" s="139"/>
-      <c r="T38" s="139"/>
-      <c r="U38" s="139"/>
-      <c r="V38" s="139"/>
-      <c r="W38" s="139"/>
-      <c r="X38" s="139"/>
-      <c r="Y38" s="139"/>
-      <c r="Z38" s="139"/>
-      <c r="AA38" s="139"/>
-      <c r="AB38" s="139"/>
-      <c r="AC38" s="139"/>
-      <c r="AD38" s="139"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="140"/>
+      <c r="N38" s="140"/>
+      <c r="O38" s="140"/>
+      <c r="P38" s="140"/>
+      <c r="Q38" s="140"/>
+      <c r="R38" s="140"/>
+      <c r="S38" s="140"/>
+      <c r="T38" s="140"/>
+      <c r="U38" s="140"/>
+      <c r="V38" s="140"/>
+      <c r="W38" s="140"/>
+      <c r="X38" s="140"/>
+      <c r="Y38" s="140"/>
+      <c r="Z38" s="140"/>
+      <c r="AA38" s="140"/>
+      <c r="AB38" s="140"/>
+      <c r="AC38" s="140"/>
+      <c r="AD38" s="140"/>
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="156"/>
+      <c r="B39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="C39" s="18"/>
       <c r="D39" s="19"/>
       <c r="E39" s="18"/>
@@ -4502,26 +4530,26 @@
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="137"/>
-      <c r="L39" s="137"/>
-      <c r="M39" s="137"/>
-      <c r="N39" s="137"/>
-      <c r="O39" s="137"/>
-      <c r="P39" s="137"/>
-      <c r="Q39" s="137"/>
-      <c r="R39" s="137"/>
-      <c r="S39" s="137"/>
-      <c r="T39" s="137"/>
-      <c r="U39" s="137"/>
-      <c r="V39" s="137"/>
-      <c r="W39" s="137"/>
-      <c r="X39" s="137"/>
-      <c r="Y39" s="137"/>
-      <c r="Z39" s="137"/>
-      <c r="AA39" s="137"/>
-      <c r="AB39" s="137"/>
-      <c r="AC39" s="137"/>
-      <c r="AD39" s="137"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
+      <c r="S39" s="138"/>
+      <c r="T39" s="138"/>
+      <c r="U39" s="138"/>
+      <c r="V39" s="138"/>
+      <c r="W39" s="138"/>
+      <c r="X39" s="138"/>
+      <c r="Y39" s="138"/>
+      <c r="Z39" s="138"/>
+      <c r="AA39" s="138"/>
+      <c r="AB39" s="138"/>
+      <c r="AC39" s="138"/>
+      <c r="AD39" s="138"/>
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
@@ -4534,26 +4562,26 @@
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="137"/>
-      <c r="N40" s="137"/>
-      <c r="O40" s="137"/>
-      <c r="P40" s="137"/>
-      <c r="Q40" s="137"/>
-      <c r="R40" s="137"/>
-      <c r="S40" s="137"/>
-      <c r="T40" s="137"/>
-      <c r="U40" s="137"/>
-      <c r="V40" s="137"/>
-      <c r="W40" s="137"/>
-      <c r="X40" s="137"/>
-      <c r="Y40" s="137"/>
-      <c r="Z40" s="137"/>
-      <c r="AA40" s="137"/>
-      <c r="AB40" s="137"/>
-      <c r="AC40" s="137"/>
-      <c r="AD40" s="137"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
+      <c r="Q40" s="138"/>
+      <c r="R40" s="138"/>
+      <c r="S40" s="138"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="138"/>
+      <c r="V40" s="138"/>
+      <c r="W40" s="138"/>
+      <c r="X40" s="138"/>
+      <c r="Y40" s="138"/>
+      <c r="Z40" s="138"/>
+      <c r="AA40" s="138"/>
+      <c r="AB40" s="138"/>
+      <c r="AC40" s="138"/>
+      <c r="AD40" s="138"/>
     </row>
     <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
@@ -4623,21 +4651,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="148"/>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -4881,7 +4909,7 @@
       </c>
       <c r="B20" s="7">
         <f>'IPA Zeitplanung'!AA$4</f>
-        <v>0</v>
+        <v>42741</v>
       </c>
       <c r="C20" s="5">
         <f>'IPA Zeitplanung'!AA36</f>
@@ -4894,7 +4922,7 @@
       </c>
       <c r="B21" s="7">
         <f>'IPA Zeitplanung'!AB$4</f>
-        <v>0</v>
+        <v>42744</v>
       </c>
       <c r="C21" s="5">
         <f>'IPA Zeitplanung'!AB36</f>
@@ -4943,10 +4971,10 @@
     <row r="25" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="150"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
@@ -4955,10 +4983,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="147"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>10</v>
@@ -4969,10 +4997,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="151" t="s">
+      <c r="A29" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="152"/>
+      <c r="B29" s="153"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>9</v>
@@ -4983,24 +5011,24 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="147"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
         <v>59</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="151" t="s">
+      <c r="A31" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="152"/>
+      <c r="B31" s="153"/>
       <c r="C31" s="5">
         <f>'IPA Zeitplanung'!C26</f>
         <v>29</v>
@@ -5011,10 +5039,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="147"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C31</f>
         <v>21.400000000000002</v>
@@ -5025,10 +5053,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="147"/>
+      <c r="B33" s="148"/>
       <c r="C33" s="5">
         <f>'IPA Zeitplanung'!C33</f>
         <v>0.2</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -1903,6 +1903,15 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1947,15 +1956,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2372,7 +2372,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -2891,7 +2891,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z18" sqref="Z18"/>
+      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2911,38 +2911,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="142"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
     </row>
     <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
@@ -2959,44 +2959,44 @@
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78"/>
       <c r="B3" s="82"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="26"/>
       <c r="H3" s="25"/>
       <c r="I3" s="26"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="144" t="s">
+      <c r="K3" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="143" t="s">
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="143" t="s">
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="143" t="s">
+      <c r="V3" s="147"/>
+      <c r="W3" s="147"/>
+      <c r="X3" s="147"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="145"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="147"/>
+      <c r="AD3" s="148"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D15" s="109">
         <f>SUM(D16:D21)</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E15" s="110"/>
       <c r="F15" s="111"/>
@@ -3593,7 +3593,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="67">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" s="32">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="67">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E18" s="32">
         <v>1</v>
@@ -3660,8 +3660,8 @@
       <c r="W18" s="130"/>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="40"/>
+      <c r="Z18" s="136"/>
+      <c r="AA18" s="136"/>
       <c r="AB18" s="40"/>
       <c r="AC18" s="67"/>
       <c r="AD18" s="90"/>
@@ -3697,14 +3697,14 @@
       <c r="R19" s="130"/>
       <c r="S19" s="136"/>
       <c r="T19" s="136"/>
-      <c r="U19" s="154"/>
+      <c r="U19" s="138"/>
       <c r="V19" s="130"/>
       <c r="W19" s="130"/>
       <c r="X19" s="38"/>
       <c r="Y19" s="33"/>
       <c r="Z19" s="42"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
+      <c r="AA19" s="136"/>
+      <c r="AB19" s="136"/>
       <c r="AC19" s="67"/>
       <c r="AD19" s="90"/>
     </row>
@@ -3743,8 +3743,8 @@
       <c r="X20" s="38"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="42"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
+      <c r="AA20" s="136"/>
+      <c r="AB20" s="136"/>
       <c r="AC20" s="67"/>
       <c r="AD20" s="90"/>
     </row>
@@ -3777,7 +3777,7 @@
       <c r="R21" s="130"/>
       <c r="S21" s="48"/>
       <c r="T21" s="49"/>
-      <c r="U21" s="154"/>
+      <c r="U21" s="138"/>
       <c r="V21" s="130"/>
       <c r="W21" s="130"/>
       <c r="X21" s="38"/>
@@ -3820,7 +3820,7 @@
       <c r="U22" s="38"/>
       <c r="V22" s="130"/>
       <c r="W22" s="130"/>
-      <c r="X22" s="155"/>
+      <c r="X22" s="139"/>
       <c r="Y22" s="38"/>
       <c r="Z22" s="42"/>
       <c r="AA22" s="40"/>
@@ -3861,7 +3861,7 @@
       <c r="V23" s="130"/>
       <c r="W23" s="130"/>
       <c r="X23" s="38"/>
-      <c r="Y23" s="155"/>
+      <c r="Y23" s="139"/>
       <c r="Z23" s="42"/>
       <c r="AA23" s="40"/>
       <c r="AB23" s="40"/>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="D36" s="123">
         <f>SUM(D15,D26,D31,D33)</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E36" s="123"/>
       <c r="F36" s="123"/>
@@ -4473,15 +4473,15 @@
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="129"/>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="130"/>
@@ -4496,29 +4496,29 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="140"/>
-      <c r="M38" s="140"/>
-      <c r="N38" s="140"/>
-      <c r="O38" s="140"/>
-      <c r="P38" s="140"/>
-      <c r="Q38" s="140"/>
-      <c r="R38" s="140"/>
-      <c r="S38" s="140"/>
-      <c r="T38" s="140"/>
-      <c r="U38" s="140"/>
-      <c r="V38" s="140"/>
-      <c r="W38" s="140"/>
-      <c r="X38" s="140"/>
-      <c r="Y38" s="140"/>
-      <c r="Z38" s="140"/>
-      <c r="AA38" s="140"/>
-      <c r="AB38" s="140"/>
-      <c r="AC38" s="140"/>
-      <c r="AD38" s="140"/>
+      <c r="K38" s="142"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="143"/>
+      <c r="U38" s="143"/>
+      <c r="V38" s="143"/>
+      <c r="W38" s="143"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="143"/>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="143"/>
+      <c r="AB38" s="143"/>
+      <c r="AC38" s="143"/>
+      <c r="AD38" s="143"/>
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="156"/>
+      <c r="A39" s="140"/>
       <c r="B39" s="14" t="s">
         <v>54</v>
       </c>
@@ -4530,26 +4530,26 @@
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="138"/>
-      <c r="O39" s="138"/>
-      <c r="P39" s="138"/>
-      <c r="Q39" s="138"/>
-      <c r="R39" s="138"/>
-      <c r="S39" s="138"/>
-      <c r="T39" s="138"/>
-      <c r="U39" s="138"/>
-      <c r="V39" s="138"/>
-      <c r="W39" s="138"/>
-      <c r="X39" s="138"/>
-      <c r="Y39" s="138"/>
-      <c r="Z39" s="138"/>
-      <c r="AA39" s="138"/>
-      <c r="AB39" s="138"/>
-      <c r="AC39" s="138"/>
-      <c r="AD39" s="138"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="141"/>
+      <c r="M39" s="141"/>
+      <c r="N39" s="141"/>
+      <c r="O39" s="141"/>
+      <c r="P39" s="141"/>
+      <c r="Q39" s="141"/>
+      <c r="R39" s="141"/>
+      <c r="S39" s="141"/>
+      <c r="T39" s="141"/>
+      <c r="U39" s="141"/>
+      <c r="V39" s="141"/>
+      <c r="W39" s="141"/>
+      <c r="X39" s="141"/>
+      <c r="Y39" s="141"/>
+      <c r="Z39" s="141"/>
+      <c r="AA39" s="141"/>
+      <c r="AB39" s="141"/>
+      <c r="AC39" s="141"/>
+      <c r="AD39" s="141"/>
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
@@ -4562,26 +4562,26 @@
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="138"/>
-      <c r="O40" s="138"/>
-      <c r="P40" s="138"/>
-      <c r="Q40" s="138"/>
-      <c r="R40" s="138"/>
-      <c r="S40" s="138"/>
-      <c r="T40" s="138"/>
-      <c r="U40" s="138"/>
-      <c r="V40" s="138"/>
-      <c r="W40" s="138"/>
-      <c r="X40" s="138"/>
-      <c r="Y40" s="138"/>
-      <c r="Z40" s="138"/>
-      <c r="AA40" s="138"/>
-      <c r="AB40" s="138"/>
-      <c r="AC40" s="138"/>
-      <c r="AD40" s="138"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="141"/>
+      <c r="N40" s="141"/>
+      <c r="O40" s="141"/>
+      <c r="P40" s="141"/>
+      <c r="Q40" s="141"/>
+      <c r="R40" s="141"/>
+      <c r="S40" s="141"/>
+      <c r="T40" s="141"/>
+      <c r="U40" s="141"/>
+      <c r="V40" s="141"/>
+      <c r="W40" s="141"/>
+      <c r="X40" s="141"/>
+      <c r="Y40" s="141"/>
+      <c r="Z40" s="141"/>
+      <c r="AA40" s="141"/>
+      <c r="AB40" s="141"/>
+      <c r="AC40" s="141"/>
+      <c r="AD40" s="141"/>
     </row>
     <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
@@ -4651,21 +4651,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="149"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -4971,10 +4971,10 @@
     <row r="25" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="150" t="s">
+      <c r="A27" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="151"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
@@ -4983,10 +4983,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="148"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>10</v>
@@ -4997,10 +4997,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="153"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>9</v>
@@ -5011,24 +5011,24 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="148"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
         <v>59</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="153"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="5">
         <f>'IPA Zeitplanung'!C26</f>
         <v>29</v>
@@ -5039,10 +5039,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="148"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C31</f>
         <v>21.400000000000002</v>
@@ -5053,10 +5053,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="147" t="s">
+      <c r="A33" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="148"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="5">
         <f>'IPA Zeitplanung'!C33</f>
         <v>0.2</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Ist Arbeitszeit - Übersicht" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AD$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AC$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Nr.</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Dokumentation</t>
   </si>
   <si>
-    <t>Deployment (Setup erstellen, etc)</t>
-  </si>
-  <si>
     <t>Benutzerschulung</t>
   </si>
   <si>
@@ -300,6 +297,12 @@
   </si>
   <si>
     <t>Krank</t>
+  </si>
+  <si>
+    <t>Workshop mit Erich Kissling</t>
+  </si>
+  <si>
+    <t>Webabstract</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +503,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="80">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -876,17 +885,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1073,15 +1071,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1259,21 +1248,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color indexed="64"/>
@@ -1335,101 +1309,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1500,19 +1379,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1540,9 +1419,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1567,19 +1443,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1645,97 +1521,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1744,42 +1620,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1795,85 +1650,79 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="69" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1885,10 +1734,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,6 +1759,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1921,7 +1773,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1930,32 +1782,29 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2298,16 +2147,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.400000000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,22 +2215,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,13 +2734,13 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2899,52 +2748,51 @@
     <col min="1" max="1" width="3.59765625" style="9" customWidth="1"/>
     <col min="2" max="2" width="44.19921875" style="9" customWidth="1"/>
     <col min="3" max="3" width="5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="5" style="20" customWidth="1"/>
     <col min="5" max="5" width="5" style="9" customWidth="1"/>
     <col min="6" max="8" width="3.09765625" style="9" customWidth="1"/>
     <col min="9" max="9" width="7.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.19921875" style="22" customWidth="1"/>
-    <col min="11" max="30" width="3.09765625" style="9" customWidth="1"/>
-    <col min="31" max="31" width="4.19921875" style="8" customWidth="1"/>
-    <col min="32" max="40" width="12.5" style="8" customWidth="1"/>
-    <col min="41" max="16384" width="12.5" style="9"/>
+    <col min="10" max="10" width="4.19921875" style="21" customWidth="1"/>
+    <col min="11" max="29" width="3.09765625" style="9" customWidth="1"/>
+    <col min="30" max="30" width="4.19921875" style="8" customWidth="1"/>
+    <col min="31" max="39" width="12.5" style="8" customWidth="1"/>
+    <col min="40" max="16384" width="12.5" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-    </row>
-    <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+    </row>
+    <row r="2" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2956,1664 +2804,1565 @@
       <c r="I2" s="8"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="147" t="s">
+    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="147" t="s">
+      <c r="D3" s="138"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="146" t="s">
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="146" t="s">
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="146" t="s">
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="147"/>
-      <c r="AC3" s="147"/>
-      <c r="AD3" s="148"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-    </row>
-    <row r="4" spans="1:34" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="28" t="s">
+    </row>
+    <row r="4" spans="1:33" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="133" t="s">
+      <c r="H4" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="112">
+        <v>42705</v>
+      </c>
+      <c r="L4" s="112">
+        <v>42706</v>
+      </c>
+      <c r="M4" s="112">
+        <v>42709</v>
+      </c>
+      <c r="N4" s="112">
+        <v>42710</v>
+      </c>
+      <c r="O4" s="112">
+        <v>42711</v>
+      </c>
+      <c r="P4" s="112">
+        <v>42716</v>
+      </c>
+      <c r="Q4" s="112">
+        <v>42717</v>
+      </c>
+      <c r="R4" s="112">
+        <v>42718</v>
+      </c>
+      <c r="S4" s="112">
+        <v>42719</v>
+      </c>
+      <c r="T4" s="112">
+        <v>42720</v>
+      </c>
+      <c r="U4" s="112">
+        <v>42723</v>
+      </c>
+      <c r="V4" s="112">
+        <v>42724</v>
+      </c>
+      <c r="W4" s="112">
+        <v>42725</v>
+      </c>
+      <c r="X4" s="112">
+        <v>42726</v>
+      </c>
+      <c r="Y4" s="112">
+        <v>42727</v>
+      </c>
+      <c r="Z4" s="112">
+        <v>42740</v>
+      </c>
+      <c r="AA4" s="112">
+        <v>42741</v>
+      </c>
+      <c r="AB4" s="112">
+        <v>42744</v>
+      </c>
+      <c r="AC4" s="112">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="97">
+        <v>10</v>
+      </c>
+      <c r="B5" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="121">
-        <v>42705</v>
-      </c>
-      <c r="L4" s="121">
-        <v>42706</v>
-      </c>
-      <c r="M4" s="121">
-        <v>42709</v>
-      </c>
-      <c r="N4" s="121">
-        <v>42710</v>
-      </c>
-      <c r="O4" s="121">
-        <v>42711</v>
-      </c>
-      <c r="P4" s="121">
-        <v>42716</v>
-      </c>
-      <c r="Q4" s="121">
-        <v>42717</v>
-      </c>
-      <c r="R4" s="121">
-        <v>42718</v>
-      </c>
-      <c r="S4" s="121">
-        <v>42719</v>
-      </c>
-      <c r="T4" s="121">
-        <v>42720</v>
-      </c>
-      <c r="U4" s="121">
-        <v>42723</v>
-      </c>
-      <c r="V4" s="121">
-        <v>42724</v>
-      </c>
-      <c r="W4" s="121">
-        <v>42725</v>
-      </c>
-      <c r="X4" s="121">
-        <v>42726</v>
-      </c>
-      <c r="Y4" s="121">
-        <v>42727</v>
-      </c>
-      <c r="Z4" s="121">
-        <v>42740</v>
-      </c>
-      <c r="AA4" s="121">
-        <v>42741</v>
-      </c>
-      <c r="AB4" s="121">
-        <v>42744</v>
-      </c>
-      <c r="AD4" s="90"/>
-    </row>
-    <row r="5" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105">
-        <v>10</v>
-      </c>
-      <c r="B5" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="108">
+      <c r="C5" s="100">
         <f>SUM(C6:C10)</f>
         <v>10</v>
       </c>
-      <c r="D5" s="109">
+      <c r="D5" s="101">
         <f>SUM(D6:D10)</f>
+        <v>13</v>
+      </c>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="109"/>
+    </row>
+    <row r="6" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78">
+        <v>11</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="str">
+        <f>IF(SUM(K6:AC6)=0," ",SUM(K6:AC6))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="39"/>
+    </row>
+    <row r="7" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78">
+        <v>12</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="43">
+        <v>2</v>
+      </c>
+      <c r="D7" s="33">
+        <v>5</v>
+      </c>
+      <c r="E7" s="42">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="47"/>
+    </row>
+    <row r="8" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78">
+        <v>13</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="33" t="str">
+        <f>IF(SUM(K8:AC8)=0," ",SUM(K8:AC8))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" s="42">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="131"/>
+      <c r="AC8" s="33"/>
+      <c r="AE8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78">
+        <v>14</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="43">
         <v>3</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="118"/>
-    </row>
-    <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79">
+      <c r="D9" s="33">
+        <v>3</v>
+      </c>
+      <c r="E9" s="42">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="33"/>
+    </row>
+    <row r="10" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78">
+        <v>15</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="54">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33">
+        <v>5</v>
+      </c>
+      <c r="E10" s="53">
+        <v>1</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="131"/>
+      <c r="AC10" s="63"/>
+    </row>
+    <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="97">
+        <v>20</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="110">
+        <f>SUM(C12:C12)</f>
+        <v>9</v>
+      </c>
+      <c r="D11" s="100">
+        <f>SUM(D12:D12)</f>
+        <v>9</v>
+      </c>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="109"/>
+    </row>
+    <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79">
+        <v>21</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="32">
+        <v>9</v>
+      </c>
+      <c r="D12" s="66">
+        <v>9</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="131"/>
+      <c r="AC12" s="66"/>
+    </row>
+    <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="97">
+        <v>30</v>
+      </c>
+      <c r="B13" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="C13" s="100">
+        <f>SUM(C14:C23)</f>
+        <v>124</v>
+      </c>
+      <c r="D13" s="101">
+        <f>SUM(D14:D23)</f>
+        <v>130</v>
+      </c>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="109"/>
+    </row>
+    <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79">
+        <v>31</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="32">
+        <v>2</v>
+      </c>
+      <c r="D14" s="66">
+        <v>1</v>
+      </c>
+      <c r="E14" s="31">
+        <v>2</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="131"/>
+      <c r="AC14" s="66"/>
+    </row>
+    <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79">
+        <v>32</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="32">
+        <v>10</v>
+      </c>
+      <c r="D15" s="66">
+        <v>14</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="66"/>
+    </row>
+    <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="79">
+        <v>33</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="32">
+        <v>16</v>
+      </c>
+      <c r="D16" s="66">
+        <v>34</v>
+      </c>
+      <c r="E16" s="31">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="126"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="126"/>
+      <c r="AA16" s="126"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="66"/>
+    </row>
+    <row r="17" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="79">
+        <v>34</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="32">
         <v>19</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="str">
-        <f>IF(SUM(K6:AD6)=0," ",SUM(K6:AD6))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E6" s="32">
+      <c r="D17" s="66">
+        <v>22</v>
+      </c>
+      <c r="E17" s="31">
         <v>1</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="85"/>
-    </row>
-    <row r="7" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79">
-        <v>12</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="44">
+      <c r="F17" s="32"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="126"/>
+    </row>
+    <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="79">
+        <v>35</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="43">
+        <v>13</v>
+      </c>
+      <c r="D18" s="66">
+        <v>17</v>
+      </c>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="126"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="126"/>
+    </row>
+    <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="79">
+        <v>36</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="43">
+        <v>8</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="131"/>
+      <c r="AC19" s="126"/>
+    </row>
+    <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79">
+        <v>37</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="43">
+        <v>6</v>
+      </c>
+      <c r="D20" s="66">
+        <v>0</v>
+      </c>
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="131"/>
+      <c r="AC20" s="66"/>
+    </row>
+    <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="79">
+        <v>38</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="43">
+        <v>8</v>
+      </c>
+      <c r="D21" s="66">
+        <v>0</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="129"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="66"/>
+    </row>
+    <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="79">
+        <v>39</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="43">
+        <v>17</v>
+      </c>
+      <c r="D22" s="66">
+        <v>0</v>
+      </c>
+      <c r="E22" s="31">
         <v>2</v>
       </c>
-      <c r="D7" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="43">
+      <c r="F22" s="32"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="66"/>
+    </row>
+    <row r="23" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="79">
+        <v>10</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="43">
+        <v>25</v>
+      </c>
+      <c r="D23" s="66">
+        <v>42</v>
+      </c>
+      <c r="E23" s="31">
+        <v>2</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="66"/>
+    </row>
+    <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="97">
+        <v>40</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="100">
+        <f>SUM(C25:C28)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="101">
+        <v>4</v>
+      </c>
+      <c r="E24" s="107"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="108"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="109"/>
+    </row>
+    <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="79">
+        <v>30</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0</v>
+      </c>
+      <c r="D25" s="66">
+        <v>0</v>
+      </c>
+      <c r="E25" s="31">
         <v>1</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="87"/>
-    </row>
-    <row r="8" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79">
+      <c r="F25" s="32"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="120"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="39"/>
+    </row>
+    <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="79">
+        <v>31</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0</v>
+      </c>
+      <c r="D26" s="66">
+        <v>0</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="131"/>
+      <c r="AC26" s="47"/>
+    </row>
+    <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="79">
+        <v>32</v>
+      </c>
+      <c r="B27" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="69">
+        <v>1</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="39"/>
+    </row>
+    <row r="28" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78">
+        <v>33</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="54">
+        <v>0</v>
+      </c>
+      <c r="D28" s="63">
+        <v>0</v>
+      </c>
+      <c r="E28" s="53">
+        <v>2</v>
+      </c>
+      <c r="F28" s="64"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="131"/>
+      <c r="AC28" s="59"/>
+    </row>
+    <row r="29" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="97">
+        <v>50</v>
+      </c>
+      <c r="B29" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="44">
+      <c r="C29" s="100">
+        <f>SUM(C30)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="101">
+        <f>SUM(D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="108"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="108"/>
+      <c r="AB29" s="108"/>
+      <c r="AC29" s="109"/>
+    </row>
+    <row r="30" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="80">
+        <v>51</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="64">
+        <v>1</v>
+      </c>
+      <c r="D30" s="72">
+        <v>0</v>
+      </c>
+      <c r="E30" s="69">
+        <v>3</v>
+      </c>
+      <c r="F30" s="64"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="131"/>
+      <c r="AC30" s="71"/>
+    </row>
+    <row r="31" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="97">
+        <v>60</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="100">
+        <f>SUM(C32:C33)</f>
+        <v>1.2</v>
+      </c>
+      <c r="D31" s="101">
+        <f>SUM(D32:D33)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E31" s="102"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="108"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="108"/>
+      <c r="AB31" s="108"/>
+      <c r="AC31" s="109"/>
+    </row>
+    <row r="32" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="79">
+        <v>61</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="34" t="str">
-        <f t="shared" ref="D8" si="0">IF(SUM(K8:AD8)=0," ",SUM(K8:AD8))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" s="43">
+      <c r="E32" s="31">
         <v>1</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="88"/>
-      <c r="AF8" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79">
-        <v>14</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="44">
-        <v>3</v>
-      </c>
-      <c r="D9" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="E9" s="43">
+      <c r="F32" s="32"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="39"/>
+    </row>
+    <row r="33" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="78">
+        <v>62</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="42">
         <v>1</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="88"/>
-    </row>
-    <row r="10" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79">
-        <v>15</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="55">
-        <v>3</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="54">
-        <v>1</v>
-      </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="88"/>
-    </row>
-    <row r="11" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105">
-        <v>20</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="119">
-        <f>SUM(C12:C14)</f>
-        <v>9</v>
-      </c>
-      <c r="D11" s="108">
-        <f>SUM(D12:D14)</f>
-        <v>9</v>
-      </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="118"/>
-    </row>
-    <row r="12" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80">
-        <v>21</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="33">
-        <v>9</v>
-      </c>
-      <c r="D12" s="67">
-        <v>9</v>
-      </c>
-      <c r="E12" s="32">
-        <v>1</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="90"/>
-    </row>
-    <row r="13" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80">
-        <v>22</v>
-      </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="67" t="str">
-        <f t="shared" ref="D13:D14" si="1">IF(SUM(K13:AD13)=0," ",SUM(K13:AD13))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="90"/>
-    </row>
-    <row r="14" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80">
-        <v>23</v>
-      </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="90"/>
-    </row>
-    <row r="15" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105">
-        <v>30</v>
-      </c>
-      <c r="B15" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="108">
-        <f>SUM(C16:C20)</f>
-        <v>59</v>
-      </c>
-      <c r="D15" s="109">
-        <f>SUM(D16:D21)</f>
+      <c r="F33" s="75"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="120"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="131"/>
+      <c r="AC33" s="47"/>
+    </row>
+    <row r="34" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="96"/>
+      <c r="B34" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="114">
+        <f>SUM(C5+C11+C13+C24+C31)</f>
+        <v>144.39999999999998</v>
+      </c>
+      <c r="D34" s="114">
+        <f>SUM(D13,D24,D29,D31,D11)</f>
+        <v>145.19999999999999</v>
+      </c>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="117">
+        <f t="shared" ref="K34:AC34" si="0">SUM(K5:K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="118">
+        <f>SUM(O5:O33)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="119"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+    </row>
+    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="120"/>
+      <c r="B36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="134"/>
+      <c r="P36" s="134"/>
+      <c r="Q36" s="134"/>
+      <c r="R36" s="134"/>
+      <c r="S36" s="134"/>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="134"/>
+      <c r="X36" s="134"/>
+      <c r="Y36" s="134"/>
+      <c r="Z36" s="134"/>
+      <c r="AA36" s="134"/>
+      <c r="AB36" s="134"/>
+      <c r="AC36" s="134"/>
+    </row>
+    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="130"/>
+      <c r="B37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="132"/>
+      <c r="R37" s="132"/>
+      <c r="S37" s="132"/>
+      <c r="T37" s="132"/>
+      <c r="U37" s="132"/>
+      <c r="V37" s="132"/>
+      <c r="W37" s="132"/>
+      <c r="X37" s="132"/>
+      <c r="Y37" s="132"/>
+      <c r="Z37" s="132"/>
+      <c r="AA37" s="132"/>
+      <c r="AB37" s="132"/>
+      <c r="AC37" s="132"/>
+    </row>
+    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="131"/>
+      <c r="B38" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="112"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="112"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="116"/>
-      <c r="AB15" s="116"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="118"/>
-    </row>
-    <row r="16" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80">
-        <v>31</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="33">
-        <v>3</v>
-      </c>
-      <c r="D16" s="67">
-        <v>0</v>
-      </c>
-      <c r="E16" s="32">
-        <v>2</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="90"/>
-    </row>
-    <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="80">
-        <v>32</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="33">
-        <v>8</v>
-      </c>
-      <c r="D17" s="67">
-        <v>10</v>
-      </c>
-      <c r="E17" s="32">
-        <v>1</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="90"/>
-    </row>
-    <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="80">
-        <v>33</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="33">
-        <v>16</v>
-      </c>
-      <c r="D18" s="67">
-        <v>24</v>
-      </c>
-      <c r="E18" s="32">
-        <v>1</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="136"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="130"/>
-      <c r="W18" s="130"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="136"/>
-      <c r="AA18" s="136"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="90"/>
-    </row>
-    <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="80">
-        <v>34</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="33">
-        <v>24</v>
-      </c>
-      <c r="D19" s="67">
-        <v>20</v>
-      </c>
-      <c r="E19" s="32">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="136"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="90"/>
-    </row>
-    <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80">
-        <v>35</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="44">
-        <v>8</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="32">
-        <v>1</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="136"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="130"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="136"/>
-      <c r="AB20" s="136"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="90"/>
-    </row>
-    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80">
-        <v>36</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="44">
-        <v>8</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="32">
-        <v>1</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="130"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="130"/>
-      <c r="W21" s="130"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="88"/>
-    </row>
-    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80">
-        <v>37</v>
-      </c>
-      <c r="B22" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="44">
-        <v>8</v>
-      </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="32">
-        <v>1</v>
-      </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="130"/>
-      <c r="W22" s="130"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="90"/>
-    </row>
-    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80">
-        <v>38</v>
-      </c>
-      <c r="B23" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="44">
-        <v>8</v>
-      </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="32">
-        <v>1</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="130"/>
-      <c r="W23" s="130"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="139"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="90"/>
-    </row>
-    <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="80">
-        <v>39</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="44">
-        <v>3</v>
-      </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="32">
-        <v>2</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="130"/>
-      <c r="W24" s="130"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="90"/>
-    </row>
-    <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="80">
-        <v>10</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="44">
-        <v>8</v>
-      </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="32">
-        <v>2</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="90"/>
-    </row>
-    <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="105">
-        <v>40</v>
-      </c>
-      <c r="B26" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="108">
-        <f>SUM(C27:C30)</f>
-        <v>29</v>
-      </c>
-      <c r="D26" s="109">
-        <v>4</v>
-      </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="116"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="107"/>
-      <c r="AA26" s="116"/>
-      <c r="AB26" s="116"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="118"/>
-    </row>
-    <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="80">
-        <v>30</v>
-      </c>
-      <c r="B27" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="33">
-        <v>8</v>
-      </c>
-      <c r="D27" s="67" t="str">
-        <f>IF(SUM(K27:AD27)=0," ",SUM(K27:AD27))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E27" s="32">
-        <v>1</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="93"/>
-    </row>
-    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="80">
-        <v>31</v>
-      </c>
-      <c r="B28" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="33">
-        <v>8</v>
-      </c>
-      <c r="D28" s="67" t="str">
-        <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E28" s="32">
-        <v>1</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="94"/>
-    </row>
-    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="80">
-        <v>32</v>
-      </c>
-      <c r="B29" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="65">
-        <v>5</v>
-      </c>
-      <c r="D29" s="67" t="str">
-        <f>IF(SUM(K29:AD29)=0," ",SUM(K29:AD29))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E29" s="70">
-        <v>1</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="87"/>
-    </row>
-    <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="79">
-        <v>33</v>
-      </c>
-      <c r="B30" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="55">
-        <v>8</v>
-      </c>
-      <c r="D30" s="64" t="str">
-        <f>IF(SUM(K30:AD30)=0," ",SUM(K30:AD30))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E30" s="54">
-        <v>2</v>
-      </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="63"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="96"/>
-    </row>
-    <row r="31" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="105">
-        <v>50</v>
-      </c>
-      <c r="B31" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="108">
-        <f>SUM(C32)</f>
-        <v>21.400000000000002</v>
-      </c>
-      <c r="D31" s="109">
-        <v>4</v>
-      </c>
-      <c r="E31" s="110"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="115"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="107"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="107"/>
-      <c r="AA31" s="116"/>
-      <c r="AB31" s="116"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="118"/>
-    </row>
-    <row r="32" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="81">
-        <v>51</v>
-      </c>
-      <c r="B32" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="65">
-        <f>(C5+C11+C15+C26)*0.2</f>
-        <v>21.400000000000002</v>
-      </c>
-      <c r="D32" s="73" t="str">
-        <f>IF(SUM(K32:AD32)=0," ",SUM(K32:AD32))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E32" s="70">
-        <v>3</v>
-      </c>
-      <c r="F32" s="65"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="87"/>
-    </row>
-    <row r="33" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="105">
-        <v>60</v>
-      </c>
-      <c r="B33" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="108">
-        <f>SUM(C34:C35)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D33" s="109">
-        <v>4</v>
-      </c>
-      <c r="E33" s="110"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="115"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="112"/>
-      <c r="Z33" s="107"/>
-      <c r="AA33" s="116"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="118"/>
-    </row>
-    <row r="34" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="80">
-        <v>61</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="67" t="str">
-        <f>IF(SUM(K34:AD34)=0," ",SUM(K34:AD34))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E34" s="32">
-        <v>2</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="94"/>
-    </row>
-    <row r="35" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79">
-        <v>62</v>
-      </c>
-      <c r="B35" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="D35" s="34" t="str">
-        <f>IF(SUM(K35:AD35)=0," ",SUM(K35:AD35))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E35" s="43">
-        <v>1</v>
-      </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="130"/>
-      <c r="W35" s="130"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="94"/>
-    </row>
-    <row r="36" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="104"/>
-      <c r="B36" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="123">
-        <f>SUM(C5+C11+C15+C26+C33)</f>
-        <v>107.2</v>
-      </c>
-      <c r="D36" s="123">
-        <f>SUM(D15,D26,D31,D33)</f>
-        <v>66</v>
-      </c>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="126">
-        <f t="shared" ref="K36:AD36" si="2">SUM(K5:K35)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="127">
-        <f>SUM(O5:O35)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="129"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-    </row>
-    <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="130"/>
-      <c r="B38" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="142"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="143"/>
-      <c r="S38" s="143"/>
-      <c r="T38" s="143"/>
-      <c r="U38" s="143"/>
-      <c r="V38" s="143"/>
-      <c r="W38" s="143"/>
-      <c r="X38" s="143"/>
-      <c r="Y38" s="143"/>
-      <c r="Z38" s="143"/>
-      <c r="AA38" s="143"/>
-      <c r="AB38" s="143"/>
-      <c r="AC38" s="143"/>
-      <c r="AD38" s="143"/>
-    </row>
-    <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="140"/>
-      <c r="B39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="141"/>
-      <c r="M39" s="141"/>
-      <c r="N39" s="141"/>
-      <c r="O39" s="141"/>
-      <c r="P39" s="141"/>
-      <c r="Q39" s="141"/>
-      <c r="R39" s="141"/>
-      <c r="S39" s="141"/>
-      <c r="T39" s="141"/>
-      <c r="U39" s="141"/>
-      <c r="V39" s="141"/>
-      <c r="W39" s="141"/>
-      <c r="X39" s="141"/>
-      <c r="Y39" s="141"/>
-      <c r="Z39" s="141"/>
-      <c r="AA39" s="141"/>
-      <c r="AB39" s="141"/>
-      <c r="AC39" s="141"/>
-      <c r="AD39" s="141"/>
-    </row>
-    <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="141"/>
-      <c r="L40" s="141"/>
-      <c r="M40" s="141"/>
-      <c r="N40" s="141"/>
-      <c r="O40" s="141"/>
-      <c r="P40" s="141"/>
-      <c r="Q40" s="141"/>
-      <c r="R40" s="141"/>
-      <c r="S40" s="141"/>
-      <c r="T40" s="141"/>
-      <c r="U40" s="141"/>
-      <c r="V40" s="141"/>
-      <c r="W40" s="141"/>
-      <c r="X40" s="141"/>
-      <c r="Y40" s="141"/>
-      <c r="Z40" s="141"/>
-      <c r="AA40" s="141"/>
-      <c r="AB40" s="141"/>
-      <c r="AC40" s="141"/>
-      <c r="AD40" s="141"/>
-    </row>
-    <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="132"/>
+      <c r="X38" s="132"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="132"/>
+      <c r="AA38" s="132"/>
+      <c r="AB38" s="132"/>
+      <c r="AC38" s="132"/>
+    </row>
+    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
+    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="19"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="20"/>
+    <row r="44" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K39:AD40"/>
-    <mergeCell ref="K38:AD38"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="K37:AC38"/>
+    <mergeCell ref="K36:AC36"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="A1:AC1"/>
     <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:T3"/>
@@ -4651,21 +4400,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="152"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -4704,7 +4453,7 @@
         <v>42705</v>
       </c>
       <c r="C4" s="5">
-        <f>'IPA Zeitplanung'!K36</f>
+        <f>'IPA Zeitplanung'!K34</f>
         <v>0</v>
       </c>
     </row>
@@ -4717,7 +4466,7 @@
         <v>42706</v>
       </c>
       <c r="C5" s="5">
-        <f>'IPA Zeitplanung'!L36</f>
+        <f>'IPA Zeitplanung'!L34</f>
         <v>0</v>
       </c>
     </row>
@@ -4730,7 +4479,7 @@
         <v>#REF!</v>
       </c>
       <c r="C6" s="5">
-        <f>'IPA Zeitplanung'!M36</f>
+        <f>'IPA Zeitplanung'!M34</f>
         <v>0</v>
       </c>
     </row>
@@ -4743,7 +4492,7 @@
         <v>#REF!</v>
       </c>
       <c r="C7" s="5">
-        <f>'IPA Zeitplanung'!N36</f>
+        <f>'IPA Zeitplanung'!N34</f>
         <v>0</v>
       </c>
     </row>
@@ -4756,7 +4505,7 @@
         <v>42709</v>
       </c>
       <c r="C8" s="5">
-        <f>'IPA Zeitplanung'!O36</f>
+        <f>'IPA Zeitplanung'!O34</f>
         <v>0</v>
       </c>
     </row>
@@ -4769,7 +4518,7 @@
         <v>42710</v>
       </c>
       <c r="C9" s="5">
-        <f>'IPA Zeitplanung'!P36</f>
+        <f>'IPA Zeitplanung'!P34</f>
         <v>0</v>
       </c>
     </row>
@@ -4782,7 +4531,7 @@
         <v>42711</v>
       </c>
       <c r="C10" s="5">
-        <f>'IPA Zeitplanung'!Q36</f>
+        <f>'IPA Zeitplanung'!Q34</f>
         <v>0</v>
       </c>
     </row>
@@ -4795,7 +4544,7 @@
         <v>#REF!</v>
       </c>
       <c r="C11" s="5">
-        <f>'IPA Zeitplanung'!R36</f>
+        <f>'IPA Zeitplanung'!R34</f>
         <v>0</v>
       </c>
     </row>
@@ -4808,7 +4557,7 @@
         <v>#REF!</v>
       </c>
       <c r="C12" s="5">
-        <f>'IPA Zeitplanung'!S36</f>
+        <f>'IPA Zeitplanung'!S34</f>
         <v>0</v>
       </c>
     </row>
@@ -4821,7 +4570,7 @@
         <v>#REF!</v>
       </c>
       <c r="C13" s="5">
-        <f>'IPA Zeitplanung'!T36</f>
+        <f>'IPA Zeitplanung'!T34</f>
         <v>0</v>
       </c>
     </row>
@@ -4834,7 +4583,7 @@
         <v>#REF!</v>
       </c>
       <c r="C14" s="5">
-        <f>'IPA Zeitplanung'!U36</f>
+        <f>'IPA Zeitplanung'!U34</f>
         <v>0</v>
       </c>
     </row>
@@ -4847,7 +4596,7 @@
         <v>42716</v>
       </c>
       <c r="C15" s="5">
-        <f>'IPA Zeitplanung'!V36</f>
+        <f>'IPA Zeitplanung'!V34</f>
         <v>0</v>
       </c>
     </row>
@@ -4860,7 +4609,7 @@
         <v>42717</v>
       </c>
       <c r="C16" s="5">
-        <f>'IPA Zeitplanung'!W36</f>
+        <f>'IPA Zeitplanung'!W34</f>
         <v>0</v>
       </c>
     </row>
@@ -4873,7 +4622,7 @@
         <v>42718</v>
       </c>
       <c r="C17" s="5">
-        <f>'IPA Zeitplanung'!X36</f>
+        <f>'IPA Zeitplanung'!X34</f>
         <v>0</v>
       </c>
     </row>
@@ -4886,7 +4635,7 @@
         <v>42719</v>
       </c>
       <c r="C18" s="5">
-        <f>'IPA Zeitplanung'!Y36</f>
+        <f>'IPA Zeitplanung'!Y34</f>
         <v>0</v>
       </c>
     </row>
@@ -4899,7 +4648,7 @@
         <v>42720</v>
       </c>
       <c r="C19" s="5">
-        <f>'IPA Zeitplanung'!Z36</f>
+        <f>'IPA Zeitplanung'!Z34</f>
         <v>0</v>
       </c>
     </row>
@@ -4912,7 +4661,7 @@
         <v>42741</v>
       </c>
       <c r="C20" s="5">
-        <f>'IPA Zeitplanung'!AA36</f>
+        <f>'IPA Zeitplanung'!AA34</f>
         <v>0</v>
       </c>
     </row>
@@ -4925,7 +4674,7 @@
         <v>42744</v>
       </c>
       <c r="C21" s="5">
-        <f>'IPA Zeitplanung'!AB36</f>
+        <f>'IPA Zeitplanung'!AB34</f>
         <v>0</v>
       </c>
     </row>
@@ -4938,7 +4687,7 @@
         <v>42723</v>
       </c>
       <c r="C22" s="5">
-        <f>'IPA Zeitplanung'!AC36</f>
+        <f>'IPA Zeitplanung'!AC34</f>
         <v>0</v>
       </c>
     </row>
@@ -4950,9 +4699,9 @@
         <f>'IPA Zeitplanung'!V$4</f>
         <v>42724</v>
       </c>
-      <c r="C23" s="5">
-        <f>'IPA Zeitplanung'!AD36</f>
-        <v>0</v>
+      <c r="C23" s="5" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4971,10 +4720,10 @@
     <row r="25" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="153" t="s">
+      <c r="A27" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="154"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
@@ -4983,24 +4732,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="151"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>10</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="155" t="s">
+      <c r="A29" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="156"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>9</v>
@@ -5011,59 +4760,59 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="151"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="5">
-        <f>'IPA Zeitplanung'!C15</f>
-        <v>59</v>
+        <f>'IPA Zeitplanung'!C13</f>
+        <v>124</v>
       </c>
       <c r="D30" s="5">
-        <f>'IPA Zeitplanung'!D15</f>
-        <v>54</v>
+        <f>'IPA Zeitplanung'!D13</f>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="155" t="s">
+      <c r="A31" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="156"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="5">
-        <f>'IPA Zeitplanung'!C26</f>
-        <v>29</v>
+        <f>'IPA Zeitplanung'!C24</f>
+        <v>0.2</v>
       </c>
       <c r="D31" s="5">
-        <f>'IPA Zeitplanung'!D26</f>
+        <f>'IPA Zeitplanung'!D24</f>
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="150" t="s">
+      <c r="A32" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="151"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="5">
+        <f>'IPA Zeitplanung'!C29</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <f>SUM('IPA Zeitplanung'!D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="141"/>
+      <c r="C33" s="5">
         <f>'IPA Zeitplanung'!C31</f>
-        <v>21.400000000000002</v>
-      </c>
-      <c r="D32" s="5">
-        <f>SUM('IPA Zeitplanung'!D31)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="151"/>
-      <c r="C33" s="5">
-        <f>'IPA Zeitplanung'!C33</f>
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="D33" s="5">
-        <f>'IPA Zeitplanung'!D33</f>
-        <v>4</v>
+        <f>'IPA Zeitplanung'!D31</f>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
